--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D9888-84F3-7A41-93F0-04BA1A8F4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D553D1-FFDD-434C-95E1-10D88D974596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7820" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="650">
   <si>
     <t>Object</t>
   </si>
@@ -2030,6 +2030,15 @@
   </si>
   <si>
     <t>["Monster_botanie.*"]</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>['PROJECT']</t>
+  </si>
+  <si>
+    <t>Om de projectnamen te kunnen matchen</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -4938,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5113,6 +5122,20 @@
       </c>
       <c r="C15" t="s">
         <v>632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D553D1-FFDD-434C-95E1-10D88D974596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607C08C-ACFA-9447-B863-F02770631A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11240" yWindow="-28800" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,20 @@
     <sheet name="Fotobeschrijving" sheetId="23" r:id="rId24"/>
     <sheet name="Fotokoppel" sheetId="24" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -89,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="818">
   <si>
     <t>Object</t>
   </si>
@@ -2039,6 +2052,510 @@
   </si>
   <si>
     <t>Om de projectnamen te kunnen matchen</t>
+  </si>
+  <si>
+    <t>['REST_VOL']</t>
+  </si>
+  <si>
+    <t>restvolume</t>
+  </si>
+  <si>
+    <t>datum_zeven</t>
+  </si>
+  <si>
+    <t>['DATUM_ZEVEN']</t>
+  </si>
+  <si>
+    <t>r_analysewaardig_zo</t>
+  </si>
+  <si>
+    <t>r_analysewaardig_bo</t>
+  </si>
+  <si>
+    <t>r_concentratie_zo</t>
+  </si>
+  <si>
+    <t>r_concentratie_bo</t>
+  </si>
+  <si>
+    <t>r_conservering_zo</t>
+  </si>
+  <si>
+    <t>r_conservering_bo</t>
+  </si>
+  <si>
+    <t>r_diversiteit_zo</t>
+  </si>
+  <si>
+    <t>r_diversiteit_bo</t>
+  </si>
+  <si>
+    <t>['R analysewaardig ZO']</t>
+  </si>
+  <si>
+    <t>['R analysewaardig BO']</t>
+  </si>
+  <si>
+    <t>['R concentratie ZO']</t>
+  </si>
+  <si>
+    <t>['R concentratie BO']</t>
+  </si>
+  <si>
+    <t>['R conservering ZO']</t>
+  </si>
+  <si>
+    <t>['R conservering BO']</t>
+  </si>
+  <si>
+    <t>['R diversiteit ZO']</t>
+  </si>
+  <si>
+    <t>['R diversiteit BO']</t>
+  </si>
+  <si>
+    <t>B_stengel_onverkoold</t>
+  </si>
+  <si>
+    <t>['B stengel onverkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-cultuur onverkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-kaf onverkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-wild onverkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-cultuur mineraaliseerd']</t>
+  </si>
+  <si>
+    <t>C_aardewerk</t>
+  </si>
+  <si>
+    <t>['C aardewerk']</t>
+  </si>
+  <si>
+    <t>C_fabsteen</t>
+  </si>
+  <si>
+    <t>['C fabsteen']</t>
+  </si>
+  <si>
+    <t>C_glas</t>
+  </si>
+  <si>
+    <t>['C glas']</t>
+  </si>
+  <si>
+    <t>C_leer</t>
+  </si>
+  <si>
+    <t>['C leer']</t>
+  </si>
+  <si>
+    <t>C_mortel</t>
+  </si>
+  <si>
+    <t>['C mortel']</t>
+  </si>
+  <si>
+    <t>C_natsteen</t>
+  </si>
+  <si>
+    <t>['C natsteen']</t>
+  </si>
+  <si>
+    <t>C_steenkool</t>
+  </si>
+  <si>
+    <t>['C steenkool']</t>
+  </si>
+  <si>
+    <t>C_textiel</t>
+  </si>
+  <si>
+    <t>['C textiel']</t>
+  </si>
+  <si>
+    <t>C_leisteen</t>
+  </si>
+  <si>
+    <t>['C leisteen']</t>
+  </si>
+  <si>
+    <t>C_overig</t>
+  </si>
+  <si>
+    <t>['C overig']</t>
+  </si>
+  <si>
+    <t>D_hout</t>
+  </si>
+  <si>
+    <t>['D hout']</t>
+  </si>
+  <si>
+    <t>D_houtskool</t>
+  </si>
+  <si>
+    <t>['D houtskool']</t>
+  </si>
+  <si>
+    <t>Z_amfibiebot_O</t>
+  </si>
+  <si>
+    <t>['Z amfibiebot O']</t>
+  </si>
+  <si>
+    <t>['Z bot-groot O']</t>
+  </si>
+  <si>
+    <t>['Z bot-klein O']</t>
+  </si>
+  <si>
+    <t>['Z eierschaal/vel O']</t>
+  </si>
+  <si>
+    <t>Z_insekten_O</t>
+  </si>
+  <si>
+    <t>['Z insekten O']</t>
+  </si>
+  <si>
+    <t>['Z visgraat/bot O']</t>
+  </si>
+  <si>
+    <t>Z_viswervel_O</t>
+  </si>
+  <si>
+    <t>['Z viswervel O']</t>
+  </si>
+  <si>
+    <t>Z_vliegepop_O</t>
+  </si>
+  <si>
+    <t>['Z vliegepop O']</t>
+  </si>
+  <si>
+    <t>['Z watervlo-ei O']</t>
+  </si>
+  <si>
+    <t>Z_wormei_O</t>
+  </si>
+  <si>
+    <t>['Z wormei O']</t>
+  </si>
+  <si>
+    <t>Z_anders</t>
+  </si>
+  <si>
+    <t>['Z anders']</t>
+  </si>
+  <si>
+    <t>Z_visschub_O</t>
+  </si>
+  <si>
+    <t>['Z visschub O']</t>
+  </si>
+  <si>
+    <t>['S molzoet/land']</t>
+  </si>
+  <si>
+    <t>S_mollusk_zout</t>
+  </si>
+  <si>
+    <t>['S mollusk zout']</t>
+  </si>
+  <si>
+    <t>S_mossel</t>
+  </si>
+  <si>
+    <t>['S mossel']</t>
+  </si>
+  <si>
+    <t>B_stengel_mineraaliseerd</t>
+  </si>
+  <si>
+    <t>['B stengel mineraaliseerd']</t>
+  </si>
+  <si>
+    <t>B_stengel_recent</t>
+  </si>
+  <si>
+    <t>['B stengel recent']</t>
+  </si>
+  <si>
+    <t>B_stengel_verkoold</t>
+  </si>
+  <si>
+    <t>['B stengel verkoold']</t>
+  </si>
+  <si>
+    <t>B_wortel_mineraaliseerd</t>
+  </si>
+  <si>
+    <t>['B wortel mineraaliseerd']</t>
+  </si>
+  <si>
+    <t>B_wortel_onverkoold</t>
+  </si>
+  <si>
+    <t>['B wortel onverkoold']</t>
+  </si>
+  <si>
+    <t>B_wortel_recent</t>
+  </si>
+  <si>
+    <t>['B wortel recent']</t>
+  </si>
+  <si>
+    <t>B_wortel_verkoold</t>
+  </si>
+  <si>
+    <t>['B wortel verkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-cultuur recent']</t>
+  </si>
+  <si>
+    <t>['B zaden-cultuur verkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-kaf mineraaliseerd']</t>
+  </si>
+  <si>
+    <t>['B zaden-kaf recent']</t>
+  </si>
+  <si>
+    <t>['B zaden-kaf verkoold']</t>
+  </si>
+  <si>
+    <t>['B zaden-wild mineraaliseerd']</t>
+  </si>
+  <si>
+    <t>['B zaden-wild recent']</t>
+  </si>
+  <si>
+    <t>['B zaden-wild verkoold']</t>
+  </si>
+  <si>
+    <t>C_antraciet</t>
+  </si>
+  <si>
+    <t>['C antraciet']</t>
+  </si>
+  <si>
+    <t>C_bewerkt_hout</t>
+  </si>
+  <si>
+    <t>['C bewerkt hout']</t>
+  </si>
+  <si>
+    <t>C_fosfaat</t>
+  </si>
+  <si>
+    <t>['C fosfaat']</t>
+  </si>
+  <si>
+    <t>C_huttenleem</t>
+  </si>
+  <si>
+    <t>['C huttenleem']</t>
+  </si>
+  <si>
+    <t>C_kleipijp</t>
+  </si>
+  <si>
+    <t>['C kleipijp']</t>
+  </si>
+  <si>
+    <t>C_lakzegel</t>
+  </si>
+  <si>
+    <t>['C lakzegel']</t>
+  </si>
+  <si>
+    <t>C_metaal</t>
+  </si>
+  <si>
+    <t>['C metaal']</t>
+  </si>
+  <si>
+    <t>C_ovenslakken</t>
+  </si>
+  <si>
+    <t>['C ovenslakken']</t>
+  </si>
+  <si>
+    <t>C_turf</t>
+  </si>
+  <si>
+    <t>['C turf']</t>
+  </si>
+  <si>
+    <t>D_C14</t>
+  </si>
+  <si>
+    <t>['D C14']</t>
+  </si>
+  <si>
+    <t>['D tak/knop']</t>
+  </si>
+  <si>
+    <t>D_te_determ</t>
+  </si>
+  <si>
+    <t>['D te determ']</t>
+  </si>
+  <si>
+    <t>S_kokkel</t>
+  </si>
+  <si>
+    <t>['S kokkel']</t>
+  </si>
+  <si>
+    <t>S_oester</t>
+  </si>
+  <si>
+    <t>['S oester']</t>
+  </si>
+  <si>
+    <t>Z_amfibiebot_V</t>
+  </si>
+  <si>
+    <t>['Z amfibiebot V']</t>
+  </si>
+  <si>
+    <t>['Z bot-groot V']</t>
+  </si>
+  <si>
+    <t>['Z bot-klein V']</t>
+  </si>
+  <si>
+    <t>['Z eierschaal/vel V']</t>
+  </si>
+  <si>
+    <t>Z_insekten_V</t>
+  </si>
+  <si>
+    <t>['Z insekten V']</t>
+  </si>
+  <si>
+    <t>['Z visgraat/bot V']</t>
+  </si>
+  <si>
+    <t>Z_visschub_V</t>
+  </si>
+  <si>
+    <t>['Z visschub V']</t>
+  </si>
+  <si>
+    <t>Z_viswervel_V</t>
+  </si>
+  <si>
+    <t>['Z viswervel V']</t>
+  </si>
+  <si>
+    <t>Z_vliegepop_V</t>
+  </si>
+  <si>
+    <t>['Z vliegepop V']</t>
+  </si>
+  <si>
+    <t>Z_vogelbot_O</t>
+  </si>
+  <si>
+    <t>['Z vogelbot O']</t>
+  </si>
+  <si>
+    <t>Z_vogelbot_V</t>
+  </si>
+  <si>
+    <t>['Z vogelbot V']</t>
+  </si>
+  <si>
+    <t>['Z watervlo-ei V']</t>
+  </si>
+  <si>
+    <t>Z_wormei_V</t>
+  </si>
+  <si>
+    <t>['Z wormei V']</t>
+  </si>
+  <si>
+    <t>B_zaden_cultuur_onverkoold</t>
+  </si>
+  <si>
+    <t>B_zaden_kaf_onverkoold</t>
+  </si>
+  <si>
+    <t>B_zaden_wild_onverkoold</t>
+  </si>
+  <si>
+    <t>B_zaden_cultuur_mineraaliseerd</t>
+  </si>
+  <si>
+    <t>Z_bot_groot_O</t>
+  </si>
+  <si>
+    <t>Z_bot_klein_O</t>
+  </si>
+  <si>
+    <t>Z_watervlo_ei_O</t>
+  </si>
+  <si>
+    <t>B_zaden_cultuur_recent</t>
+  </si>
+  <si>
+    <t>B_zaden_cultuur_verkoold</t>
+  </si>
+  <si>
+    <t>B_zaden_kaf_mineraaliseerd</t>
+  </si>
+  <si>
+    <t>B_zaden_kaf_recent</t>
+  </si>
+  <si>
+    <t>B_zaden_kaf_verkoold</t>
+  </si>
+  <si>
+    <t>B_zaden_wild_mineraaliseerd</t>
+  </si>
+  <si>
+    <t>B_zaden_wild_recent</t>
+  </si>
+  <si>
+    <t>B_zaden_wild_verkoold</t>
+  </si>
+  <si>
+    <t>Z_bot_groot_V</t>
+  </si>
+  <si>
+    <t>Z_bot_klein_V</t>
+  </si>
+  <si>
+    <t>Z_watervlo_ei_V</t>
+  </si>
+  <si>
+    <t>Z_eierschaal_of_vel_O</t>
+  </si>
+  <si>
+    <t>Z_visgraat_of_bot_O</t>
+  </si>
+  <si>
+    <t>S_molzoet_of_land</t>
+  </si>
+  <si>
+    <t>D_tak_of_knop</t>
+  </si>
+  <si>
+    <t>Z_eierschaal_of_vel_V</t>
+  </si>
+  <si>
+    <t>Z_visgraat_of_bot_V</t>
   </si>
 </sst>
 </file>
@@ -4947,16 +5464,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,6 +5500,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4994,6 +5512,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5005,6 +5524,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5015,7 +5535,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5026,7 +5547,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5037,7 +5559,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5048,7 +5571,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5060,6 +5584,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5070,7 +5595,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5081,7 +5607,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -5092,50 +5619,1062 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>628</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>215</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>631</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>647</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>648</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>659</v>
+      </c>
+      <c r="C24" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>660</v>
+      </c>
+      <c r="C25" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>794</v>
+      </c>
+      <c r="C28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>795</v>
+      </c>
+      <c r="C29" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C30" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>797</v>
+      </c>
+      <c r="C31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>676</v>
+      </c>
+      <c r="C32" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>678</v>
+      </c>
+      <c r="C33" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>680</v>
+      </c>
+      <c r="C34" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>684</v>
+      </c>
+      <c r="C36" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>688</v>
+      </c>
+      <c r="C38" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>690</v>
+      </c>
+      <c r="C39" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>696</v>
+      </c>
+      <c r="C42" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>698</v>
+      </c>
+      <c r="C43" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>700</v>
+      </c>
+      <c r="C44" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>798</v>
+      </c>
+      <c r="C45" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>799</v>
+      </c>
+      <c r="C46" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>812</v>
+      </c>
+      <c r="C47" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>813</v>
+      </c>
+      <c r="C49" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>708</v>
+      </c>
+      <c r="C50" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>710</v>
+      </c>
+      <c r="C51" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>800</v>
+      </c>
+      <c r="C52" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>713</v>
+      </c>
+      <c r="C53" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>715</v>
+      </c>
+      <c r="C54" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>717</v>
+      </c>
+      <c r="C55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>814</v>
+      </c>
+      <c r="C56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>720</v>
+      </c>
+      <c r="C57" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>722</v>
+      </c>
+      <c r="C58" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>724</v>
+      </c>
+      <c r="C59" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>726</v>
+      </c>
+      <c r="C60" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>728</v>
+      </c>
+      <c r="C61" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>730</v>
+      </c>
+      <c r="C62" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>732</v>
+      </c>
+      <c r="C63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>734</v>
+      </c>
+      <c r="C64" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>736</v>
+      </c>
+      <c r="C65" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>801</v>
+      </c>
+      <c r="C66" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>802</v>
+      </c>
+      <c r="C67" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>805</v>
+      </c>
+      <c r="C70" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>806</v>
+      </c>
+      <c r="C71" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>807</v>
+      </c>
+      <c r="C72" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>808</v>
+      </c>
+      <c r="C73" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>746</v>
+      </c>
+      <c r="C74" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>748</v>
+      </c>
+      <c r="C75" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>750</v>
+      </c>
+      <c r="C76" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>752</v>
+      </c>
+      <c r="C77" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>754</v>
+      </c>
+      <c r="C78" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>756</v>
+      </c>
+      <c r="C79" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>758</v>
+      </c>
+      <c r="C80" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>760</v>
+      </c>
+      <c r="C81" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>762</v>
+      </c>
+      <c r="C82" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>764</v>
+      </c>
+      <c r="C83" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>815</v>
+      </c>
+      <c r="C84" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>767</v>
+      </c>
+      <c r="C85" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>769</v>
+      </c>
+      <c r="C86" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>771</v>
+      </c>
+      <c r="C87" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>773</v>
+      </c>
+      <c r="C88" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>809</v>
+      </c>
+      <c r="C89" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>810</v>
+      </c>
+      <c r="C90" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>816</v>
+      </c>
+      <c r="C91" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>778</v>
+      </c>
+      <c r="C92" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>817</v>
+      </c>
+      <c r="C93" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>781</v>
+      </c>
+      <c r="C94" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>783</v>
+      </c>
+      <c r="C95" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>785</v>
+      </c>
+      <c r="C96" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>787</v>
+      </c>
+      <c r="C97" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>789</v>
+      </c>
+      <c r="C98" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>811</v>
+      </c>
+      <c r="C99" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>792</v>
+      </c>
+      <c r="C100" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -6249,10 +7788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6288,6 +7827,14 @@
       </c>
       <c r="C3" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -6300,7 +7847,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607C08C-ACFA-9447-B863-F02770631A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DBF6D-B685-024A-9FB1-496079B143F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11240" yWindow="-28800" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
     <sheet name="Monster" sheetId="25" r:id="rId2"/>
-    <sheet name="Monster_Schelp" sheetId="27" r:id="rId3"/>
-    <sheet name="Monster_Botanie" sheetId="26" r:id="rId4"/>
-    <sheet name="Put" sheetId="2" r:id="rId5"/>
-    <sheet name="Vlak" sheetId="3" r:id="rId6"/>
-    <sheet name="Spoor" sheetId="4" r:id="rId7"/>
-    <sheet name="Vulling" sheetId="5" r:id="rId8"/>
-    <sheet name="Vondst" sheetId="6" r:id="rId9"/>
-    <sheet name="Stelling" sheetId="7" r:id="rId10"/>
-    <sheet name="Artefact" sheetId="8" r:id="rId11"/>
-    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId12"/>
-    <sheet name="Metaal" sheetId="11" r:id="rId13"/>
-    <sheet name="Munt" sheetId="12" r:id="rId14"/>
-    <sheet name="Schelp" sheetId="13" r:id="rId15"/>
-    <sheet name="Steen" sheetId="14" r:id="rId16"/>
-    <sheet name="Textiel" sheetId="15" r:id="rId17"/>
-    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId18"/>
-    <sheet name="Aardewerk" sheetId="17" r:id="rId19"/>
-    <sheet name="Glas" sheetId="18" r:id="rId20"/>
-    <sheet name="Hout" sheetId="19" r:id="rId21"/>
-    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId22"/>
-    <sheet name="Leer" sheetId="22" r:id="rId23"/>
-    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId24"/>
-    <sheet name="Fotokoppel" sheetId="24" r:id="rId25"/>
+    <sheet name="Tekening" sheetId="28" r:id="rId3"/>
+    <sheet name="Monster_Schelp" sheetId="27" r:id="rId4"/>
+    <sheet name="Monster_Botanie" sheetId="26" r:id="rId5"/>
+    <sheet name="Put" sheetId="2" r:id="rId6"/>
+    <sheet name="Vlak" sheetId="3" r:id="rId7"/>
+    <sheet name="Spoor" sheetId="4" r:id="rId8"/>
+    <sheet name="Vulling" sheetId="5" r:id="rId9"/>
+    <sheet name="Vondst" sheetId="6" r:id="rId10"/>
+    <sheet name="Stelling" sheetId="7" r:id="rId11"/>
+    <sheet name="Artefact" sheetId="8" r:id="rId12"/>
+    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId13"/>
+    <sheet name="Metaal" sheetId="11" r:id="rId14"/>
+    <sheet name="Munt" sheetId="12" r:id="rId15"/>
+    <sheet name="Schelp" sheetId="13" r:id="rId16"/>
+    <sheet name="Steen" sheetId="14" r:id="rId17"/>
+    <sheet name="Textiel" sheetId="15" r:id="rId18"/>
+    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId19"/>
+    <sheet name="Aardewerk" sheetId="17" r:id="rId20"/>
+    <sheet name="Glas" sheetId="18" r:id="rId21"/>
+    <sheet name="Hout" sheetId="19" r:id="rId22"/>
+    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId23"/>
+    <sheet name="Leer" sheetId="22" r:id="rId24"/>
+    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId25"/>
+    <sheet name="Fotokoppel" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="834">
   <si>
     <t>Object</t>
   </si>
@@ -791,9 +792,6 @@
     <t>subnr</t>
   </si>
   <si>
-    <t>tekeningnr</t>
-  </si>
-  <si>
     <t>['TEKNO', '10b']</t>
   </si>
   <si>
@@ -2556,13 +2554,64 @@
   </si>
   <si>
     <t>Z_visgraat_of_bot_V</t>
+  </si>
+  <si>
+    <t>coupe</t>
+  </si>
+  <si>
+    <t>['COUPE']</t>
+  </si>
+  <si>
+    <t>['DATUM']</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>['DETAILS']</t>
+  </si>
+  <si>
+    <t>microfilm</t>
+  </si>
+  <si>
+    <t>['MICROF', 'MICROFILM']</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>['PERIODE']</t>
+  </si>
+  <si>
+    <t>['PROFIEL']</t>
+  </si>
+  <si>
+    <t>schaal</t>
+  </si>
+  <si>
+    <t>['SCHAAL']</t>
+  </si>
+  <si>
+    <t>volgnr</t>
+  </si>
+  <si>
+    <t>['VOLGNUMMER']</t>
+  </si>
+  <si>
+    <t>['OMSCHRYF', 'OMSCHRIJVING']</t>
+  </si>
+  <si>
+    <t>['TEKNO', 'ARCHIEFNUMMER','ARCHIEFNR','TEK_ID']</t>
+  </si>
+  <si>
+    <t>tekeningcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2624,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2603,7 +2666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2646,11 +2709,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2665,6 +2754,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3024,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3109,10 +3212,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" t="s">
         <v>562</v>
-      </c>
-      <c r="C9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3120,10 +3223,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3190,7 +3293,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3207,7 +3310,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3224,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3241,7 +3344,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3252,13 +3355,13 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3275,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3286,13 +3389,13 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3300,7 +3403,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -3309,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3317,16 +3420,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3334,16 +3437,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3360,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3377,10 +3480,10 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" t="s">
         <v>599</v>
-      </c>
-      <c r="G26" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3397,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3405,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3416,10 +3519,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>642</v>
+      </c>
+      <c r="C29" t="s">
         <v>643</v>
-      </c>
-      <c r="C29" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3427,10 +3530,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>644</v>
+      </c>
+      <c r="C30" t="s">
         <v>645</v>
-      </c>
-      <c r="C30" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -3440,6 +3543,194 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3482,12 +3773,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3513,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -3530,7 +3821,7 @@
         <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,7 +3832,7 @@
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3549,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3560,10 +3851,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" t="s">
         <v>550</v>
-      </c>
-      <c r="C6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3574,10 +3865,10 @@
         <v>189</v>
       </c>
       <c r="C7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" t="s">
         <v>558</v>
-      </c>
-      <c r="D7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3610,7 +3901,7 @@
         <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3629,10 +3920,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,10 +3931,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3651,10 +3942,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3687,7 +3978,7 @@
         <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +4011,7 @@
         <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +4033,7 @@
         <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3761,19 +4052,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" t="s">
         <v>542</v>
-      </c>
-      <c r="C25" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3872,7 +4163,7 @@
         <v>228</v>
       </c>
       <c r="C34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +4171,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>833</v>
+      </c>
+      <c r="C35" t="s">
         <v>229</v>
-      </c>
-      <c r="C35" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3891,10 +4182,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
         <v>231</v>
-      </c>
-      <c r="C36" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +4193,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,10 +4204,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
         <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3927,7 +4218,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,7 +4229,7 @@
         <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3946,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,10 +4248,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>554</v>
+      </c>
+      <c r="C42" t="s">
         <v>555</v>
-      </c>
-      <c r="C42" t="s">
-        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -4000,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
         <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4011,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
         <v>240</v>
-      </c>
-      <c r="C3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4022,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4033,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
         <v>243</v>
-      </c>
-      <c r="C5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4044,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4055,10 +4346,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
         <v>247</v>
-      </c>
-      <c r="C7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4066,10 +4357,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
         <v>249</v>
-      </c>
-      <c r="C8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4077,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
         <v>251</v>
-      </c>
-      <c r="C9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,10 +4379,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
         <v>253</v>
-      </c>
-      <c r="C10" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,10 +4390,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,10 +4401,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
         <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,10 +4412,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
         <v>258</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,10 +4423,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
         <v>260</v>
-      </c>
-      <c r="C14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,10 +4434,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
         <v>262</v>
-      </c>
-      <c r="C15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,10 +4445,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
         <v>264</v>
-      </c>
-      <c r="C16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4165,10 +4456,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
         <v>266</v>
-      </c>
-      <c r="C17" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4207,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>268</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4221,7 +4512,7 @@
         <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4229,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
         <v>271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4243,7 +4534,7 @@
         <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4262,10 +4553,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
         <v>275</v>
-      </c>
-      <c r="C7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4273,10 +4564,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4284,10 +4575,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4326,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
         <v>281</v>
-      </c>
-      <c r="C2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4337,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
         <v>283</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
-      </c>
-      <c r="C4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4359,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
         <v>287</v>
-      </c>
-      <c r="C5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4370,10 +4661,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
         <v>289</v>
-      </c>
-      <c r="C6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,10 +4672,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
         <v>291</v>
-      </c>
-      <c r="C7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,10 +4683,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" t="s">
         <v>293</v>
-      </c>
-      <c r="C8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,10 +4694,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4414,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4425,10 +4716,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
         <v>299</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,7 +4730,7 @@
         <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,10 +4738,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
         <v>302</v>
-      </c>
-      <c r="C13" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4458,10 +4749,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
         <v>304</v>
-      </c>
-      <c r="C14" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4469,10 +4760,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" t="s">
         <v>306</v>
-      </c>
-      <c r="C15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4480,10 +4771,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4491,10 +4782,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4502,10 +4793,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" t="s">
         <v>310</v>
-      </c>
-      <c r="C18" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4513,10 +4804,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" t="s">
         <v>312</v>
-      </c>
-      <c r="C19" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,10 +4815,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" t="s">
         <v>314</v>
-      </c>
-      <c r="C20" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,10 +4826,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" t="s">
         <v>316</v>
-      </c>
-      <c r="C21" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,10 +4837,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" t="s">
         <v>318</v>
-      </c>
-      <c r="C22" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,10 +4848,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
         <v>320</v>
-      </c>
-      <c r="C23" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,10 +4859,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" t="s">
         <v>322</v>
-      </c>
-      <c r="C24" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4579,10 +4870,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" t="s">
         <v>324</v>
-      </c>
-      <c r="C25" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4593,7 +4884,7 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4615,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>45</v>
@@ -4632,7 +4923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4656,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4667,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
         <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4678,10 +4969,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
         <v>330</v>
-      </c>
-      <c r="C4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,10 +4980,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
         <v>332</v>
-      </c>
-      <c r="C5" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,7 +4994,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,7 +5005,7 @@
         <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4722,10 +5013,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
         <v>336</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,10 +5024,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,10 +5035,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
         <v>340</v>
-      </c>
-      <c r="C10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,10 +5046,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
         <v>342</v>
-      </c>
-      <c r="C11" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +5057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:D1"/>
   <sheetViews>
@@ -4790,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -4816,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,7 +5132,7 @@
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4849,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
         <v>349</v>
-      </c>
-      <c r="C5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4860,10 +5151,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
         <v>351</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,10 +5162,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
         <v>353</v>
-      </c>
-      <c r="C7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,10 +5173,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
         <v>355</v>
-      </c>
-      <c r="C8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4893,10 +5184,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
         <v>357</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,10 +5195,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
         <v>359</v>
-      </c>
-      <c r="C10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4915,10 +5206,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" t="s">
         <v>361</v>
-      </c>
-      <c r="C11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4926,10 +5217,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" t="s">
         <v>363</v>
-      </c>
-      <c r="C12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4937,10 +5228,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
         <v>365</v>
-      </c>
-      <c r="C13" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4951,7 +5242,7 @@
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4959,10 +5250,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
         <v>367</v>
-      </c>
-      <c r="C15" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4970,10 +5261,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" t="s">
         <v>369</v>
-      </c>
-      <c r="C16" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4981,10 +5272,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" t="s">
         <v>371</v>
-      </c>
-      <c r="C17" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4992,10 +5283,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" t="s">
         <v>373</v>
-      </c>
-      <c r="C18" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5006,7 +5297,7 @@
         <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5014,10 +5305,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" t="s">
         <v>375</v>
-      </c>
-      <c r="C20" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5025,10 +5316,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" t="s">
         <v>377</v>
-      </c>
-      <c r="C21" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5036,10 +5327,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5047,10 +5338,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" t="s">
         <v>380</v>
-      </c>
-      <c r="C23" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,10 +5349,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" t="s">
         <v>382</v>
-      </c>
-      <c r="C24" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,10 +5360,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" t="s">
         <v>384</v>
-      </c>
-      <c r="C25" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +5371,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" t="s">
         <v>386</v>
-      </c>
-      <c r="C26" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5091,10 +5382,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" t="s">
         <v>388</v>
-      </c>
-      <c r="C27" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5102,10 +5393,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" t="s">
         <v>390</v>
-      </c>
-      <c r="C28" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5113,10 +5404,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
         <v>392</v>
-      </c>
-      <c r="C29" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5124,10 +5415,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
         <v>394</v>
-      </c>
-      <c r="C30" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5426,1227 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C18" t="s">
+        <v>647</v>
+      </c>
+      <c r="D18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>654</v>
+      </c>
+      <c r="C20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+      <c r="C21" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>656</v>
+      </c>
+      <c r="C22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>657</v>
+      </c>
+      <c r="C23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>659</v>
+      </c>
+      <c r="C25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>793</v>
+      </c>
+      <c r="C28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>794</v>
+      </c>
+      <c r="C29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C30" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>796</v>
+      </c>
+      <c r="C31" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>675</v>
+      </c>
+      <c r="C32" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>681</v>
+      </c>
+      <c r="C35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>683</v>
+      </c>
+      <c r="C36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>685</v>
+      </c>
+      <c r="C37" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>687</v>
+      </c>
+      <c r="C38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>689</v>
+      </c>
+      <c r="C39" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>695</v>
+      </c>
+      <c r="C42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>697</v>
+      </c>
+      <c r="C43" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>699</v>
+      </c>
+      <c r="C44" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>797</v>
+      </c>
+      <c r="C45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>798</v>
+      </c>
+      <c r="C46" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>811</v>
+      </c>
+      <c r="C47" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>704</v>
+      </c>
+      <c r="C48" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>812</v>
+      </c>
+      <c r="C49" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>707</v>
+      </c>
+      <c r="C50" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>709</v>
+      </c>
+      <c r="C51" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>799</v>
+      </c>
+      <c r="C52" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>712</v>
+      </c>
+      <c r="C53" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>714</v>
+      </c>
+      <c r="C54" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>716</v>
+      </c>
+      <c r="C55" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>813</v>
+      </c>
+      <c r="C56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C57" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>721</v>
+      </c>
+      <c r="C58" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>723</v>
+      </c>
+      <c r="C59" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>725</v>
+      </c>
+      <c r="C60" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>727</v>
+      </c>
+      <c r="C61" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>729</v>
+      </c>
+      <c r="C62" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>731</v>
+      </c>
+      <c r="C63" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>735</v>
+      </c>
+      <c r="C65" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>800</v>
+      </c>
+      <c r="C66" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>801</v>
+      </c>
+      <c r="C67" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>802</v>
+      </c>
+      <c r="C68" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>803</v>
+      </c>
+      <c r="C69" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>805</v>
+      </c>
+      <c r="C71" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>807</v>
+      </c>
+      <c r="C73" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>745</v>
+      </c>
+      <c r="C74" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>747</v>
+      </c>
+      <c r="C75" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>749</v>
+      </c>
+      <c r="C76" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>751</v>
+      </c>
+      <c r="C77" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>753</v>
+      </c>
+      <c r="C78" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>755</v>
+      </c>
+      <c r="C79" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>757</v>
+      </c>
+      <c r="C80" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>759</v>
+      </c>
+      <c r="C81" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>761</v>
+      </c>
+      <c r="C82" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>763</v>
+      </c>
+      <c r="C83" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>814</v>
+      </c>
+      <c r="C84" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>766</v>
+      </c>
+      <c r="C85" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>768</v>
+      </c>
+      <c r="C86" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>770</v>
+      </c>
+      <c r="C87" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>772</v>
+      </c>
+      <c r="C88" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>808</v>
+      </c>
+      <c r="C89" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>809</v>
+      </c>
+      <c r="C90" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>815</v>
+      </c>
+      <c r="C91" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>777</v>
+      </c>
+      <c r="C92" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>816</v>
+      </c>
+      <c r="C93" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>780</v>
+      </c>
+      <c r="C94" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>782</v>
+      </c>
+      <c r="C95" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>784</v>
+      </c>
+      <c r="C96" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>786</v>
+      </c>
+      <c r="C97" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>788</v>
+      </c>
+      <c r="C98" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>810</v>
+      </c>
+      <c r="C99" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>791</v>
+      </c>
+      <c r="C100" t="s">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -5168,7 +6679,7 @@
         <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5176,10 +6687,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" t="s">
         <v>397</v>
-      </c>
-      <c r="C3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,10 +6698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5198,10 +6709,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" t="s">
         <v>400</v>
-      </c>
-      <c r="C5" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,10 +6720,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
         <v>402</v>
-      </c>
-      <c r="C6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5220,10 +6731,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
         <v>404</v>
-      </c>
-      <c r="C7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,7 +6745,7 @@
         <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5242,10 +6753,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,10 +6764,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5267,7 +6778,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5275,10 +6786,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" t="s">
         <v>410</v>
-      </c>
-      <c r="C12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5286,10 +6797,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" t="s">
         <v>412</v>
-      </c>
-      <c r="C13" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5297,10 +6808,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5308,10 +6819,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" t="s">
         <v>415</v>
-      </c>
-      <c r="C15" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5322,7 +6833,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5341,10 +6852,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5352,10 +6863,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" t="s">
         <v>418</v>
-      </c>
-      <c r="C19" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5363,10 +6874,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" t="s">
         <v>420</v>
-      </c>
-      <c r="C20" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5374,10 +6885,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5385,10 +6896,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" t="s">
         <v>279</v>
-      </c>
-      <c r="C22" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5396,10 +6907,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" t="s">
         <v>423</v>
-      </c>
-      <c r="C23" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5407,10 +6918,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" t="s">
         <v>425</v>
-      </c>
-      <c r="C24" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5418,10 +6929,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" t="s">
         <v>427</v>
-      </c>
-      <c r="C25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5429,10 +6940,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" t="s">
         <v>429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5440,10 +6951,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s">
         <v>234</v>
-      </c>
-      <c r="C27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5454,7 +6965,7 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5462,1227 +6973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>626</v>
-      </c>
-      <c r="C12" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>651</v>
-      </c>
-      <c r="C13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>631</v>
-      </c>
-      <c r="C17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>647</v>
-      </c>
-      <c r="C18" t="s">
-        <v>648</v>
-      </c>
-      <c r="D18" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>654</v>
-      </c>
-      <c r="C19" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>655</v>
-      </c>
-      <c r="C20" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C21" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C22" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>658</v>
-      </c>
-      <c r="C23" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>659</v>
-      </c>
-      <c r="C24" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>661</v>
-      </c>
-      <c r="C26" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>670</v>
-      </c>
-      <c r="C27" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>794</v>
-      </c>
-      <c r="C28" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>795</v>
-      </c>
-      <c r="C29" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>796</v>
-      </c>
-      <c r="C30" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>797</v>
-      </c>
-      <c r="C31" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>676</v>
-      </c>
-      <c r="C32" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>678</v>
-      </c>
-      <c r="C33" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>680</v>
-      </c>
-      <c r="C34" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>682</v>
-      </c>
-      <c r="C35" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>684</v>
-      </c>
-      <c r="C36" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>686</v>
-      </c>
-      <c r="C37" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C38" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>690</v>
-      </c>
-      <c r="C39" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>692</v>
-      </c>
-      <c r="C40" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>694</v>
-      </c>
-      <c r="C41" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>696</v>
-      </c>
-      <c r="C42" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>698</v>
-      </c>
-      <c r="C43" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>700</v>
-      </c>
-      <c r="C44" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>798</v>
-      </c>
-      <c r="C45" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>799</v>
-      </c>
-      <c r="C46" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>812</v>
-      </c>
-      <c r="C47" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>705</v>
-      </c>
-      <c r="C48" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>813</v>
-      </c>
-      <c r="C49" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>708</v>
-      </c>
-      <c r="C50" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>710</v>
-      </c>
-      <c r="C51" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>800</v>
-      </c>
-      <c r="C52" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>713</v>
-      </c>
-      <c r="C53" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>715</v>
-      </c>
-      <c r="C54" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>717</v>
-      </c>
-      <c r="C55" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>814</v>
-      </c>
-      <c r="C56" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>720</v>
-      </c>
-      <c r="C57" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>722</v>
-      </c>
-      <c r="C58" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>724</v>
-      </c>
-      <c r="C59" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>726</v>
-      </c>
-      <c r="C60" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>728</v>
-      </c>
-      <c r="C61" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>730</v>
-      </c>
-      <c r="C62" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>732</v>
-      </c>
-      <c r="C63" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>734</v>
-      </c>
-      <c r="C64" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>736</v>
-      </c>
-      <c r="C65" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>801</v>
-      </c>
-      <c r="C66" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>802</v>
-      </c>
-      <c r="C67" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <f t="shared" ref="A68:A100" si="1">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>803</v>
-      </c>
-      <c r="C68" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>804</v>
-      </c>
-      <c r="C69" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>805</v>
-      </c>
-      <c r="C70" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>806</v>
-      </c>
-      <c r="C71" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>807</v>
-      </c>
-      <c r="C72" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>808</v>
-      </c>
-      <c r="C73" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>746</v>
-      </c>
-      <c r="C74" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>748</v>
-      </c>
-      <c r="C75" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>750</v>
-      </c>
-      <c r="C76" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>752</v>
-      </c>
-      <c r="C77" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>754</v>
-      </c>
-      <c r="C78" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>756</v>
-      </c>
-      <c r="C79" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>758</v>
-      </c>
-      <c r="C80" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>760</v>
-      </c>
-      <c r="C81" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>762</v>
-      </c>
-      <c r="C82" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>764</v>
-      </c>
-      <c r="C83" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>815</v>
-      </c>
-      <c r="C84" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>767</v>
-      </c>
-      <c r="C85" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>769</v>
-      </c>
-      <c r="C86" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>771</v>
-      </c>
-      <c r="C87" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>773</v>
-      </c>
-      <c r="C88" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>809</v>
-      </c>
-      <c r="C89" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>810</v>
-      </c>
-      <c r="C90" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>816</v>
-      </c>
-      <c r="C91" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>778</v>
-      </c>
-      <c r="C92" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>817</v>
-      </c>
-      <c r="C93" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>781</v>
-      </c>
-      <c r="C94" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>783</v>
-      </c>
-      <c r="C95" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>785</v>
-      </c>
-      <c r="C96" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>787</v>
-      </c>
-      <c r="C97" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>789</v>
-      </c>
-      <c r="C98" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>811</v>
-      </c>
-      <c r="C99" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>792</v>
-      </c>
-      <c r="C100" t="s">
-        <v>793</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6713,7 +7004,7 @@
         <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6721,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6732,10 +7023,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
         <v>432</v>
-      </c>
-      <c r="C4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6743,10 +7034,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" t="s">
         <v>434</v>
-      </c>
-      <c r="C5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6765,10 +7056,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" t="s">
         <v>436</v>
-      </c>
-      <c r="C7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6787,10 +7078,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
         <v>438</v>
-      </c>
-      <c r="C9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,10 +7089,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6812,7 +7103,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6820,10 +7111,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" t="s">
         <v>442</v>
-      </c>
-      <c r="C12" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,10 +7122,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6842,10 +7133,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" t="s">
         <v>445</v>
-      </c>
-      <c r="C14" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6853,10 +7144,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" t="s">
         <v>447</v>
-      </c>
-      <c r="C15" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6864,10 +7155,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" t="s">
         <v>449</v>
-      </c>
-      <c r="C16" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6875,10 +7166,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
         <v>451</v>
-      </c>
-      <c r="C17" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6886,10 +7177,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" t="s">
         <v>453</v>
-      </c>
-      <c r="C18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +7188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -6921,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
         <v>455</v>
-      </c>
-      <c r="C2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6932,10 +7223,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6946,7 +7237,7 @@
         <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,10 +7245,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
         <v>271</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6965,10 +7256,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" t="s">
         <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6976,10 +7267,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="s">
         <v>460</v>
-      </c>
-      <c r="C7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6987,10 +7278,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7001,7 +7292,7 @@
         <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7009,10 +7300,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" t="s">
         <v>464</v>
-      </c>
-      <c r="C10" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7020,10 +7311,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
         <v>466</v>
-      </c>
-      <c r="C11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7031,10 +7322,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
         <v>468</v>
-      </c>
-      <c r="C12" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7042,10 +7333,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" t="s">
         <v>470</v>
-      </c>
-      <c r="C13" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7056,7 +7347,7 @@
         <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7064,10 +7355,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" t="s">
         <v>473</v>
-      </c>
-      <c r="C15" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7075,10 +7366,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" t="s">
         <v>475</v>
-      </c>
-      <c r="C16" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7086,10 +7377,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" t="s">
         <v>477</v>
-      </c>
-      <c r="C17" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7097,7 +7388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -7121,10 +7412,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7132,10 +7423,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,10 +7434,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
         <v>353</v>
-      </c>
-      <c r="C4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7157,7 +7448,7 @@
         <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7165,10 +7456,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7176,10 +7467,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" t="s">
         <v>483</v>
-      </c>
-      <c r="C7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7187,10 +7478,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7198,10 +7489,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7209,10 +7500,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" t="s">
         <v>487</v>
-      </c>
-      <c r="C10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,10 +7511,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7234,7 +7525,7 @@
         <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7242,10 +7533,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" t="s">
         <v>491</v>
-      </c>
-      <c r="C13" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7253,10 +7544,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" t="s">
         <v>493</v>
-      </c>
-      <c r="C14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7264,10 +7555,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" t="s">
         <v>495</v>
-      </c>
-      <c r="C15" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7275,10 +7566,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C16" t="s">
         <v>497</v>
-      </c>
-      <c r="C16" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7286,10 +7577,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7297,10 +7588,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7308,10 +7599,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" t="s">
         <v>500</v>
-      </c>
-      <c r="C19" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7319,10 +7610,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" t="s">
         <v>502</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7330,10 +7621,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7341,10 +7632,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
         <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7352,10 +7643,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" t="s">
         <v>507</v>
-      </c>
-      <c r="C23" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7363,10 +7654,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" t="s">
         <v>234</v>
-      </c>
-      <c r="C24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7377,7 +7668,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7385,10 +7676,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" t="s">
         <v>509</v>
-      </c>
-      <c r="C26" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +7687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7426,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
         <v>511</v>
-      </c>
-      <c r="C2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7437,10 +7728,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7448,10 +7739,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
         <v>514</v>
-      </c>
-      <c r="C4" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7459,10 +7750,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" t="s">
         <v>516</v>
-      </c>
-      <c r="C5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7470,10 +7761,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7481,10 +7772,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7492,10 +7783,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" t="s">
         <v>519</v>
-      </c>
-      <c r="C8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7506,7 +7797,7 @@
         <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,10 +7805,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
         <v>336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7525,10 +7816,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
         <v>522</v>
-      </c>
-      <c r="C11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7536,10 +7827,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" t="s">
         <v>524</v>
-      </c>
-      <c r="C12" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7547,10 +7838,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" t="s">
         <v>526</v>
-      </c>
-      <c r="C13" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7558,10 +7849,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" t="s">
         <v>528</v>
-      </c>
-      <c r="C14" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7569,10 +7860,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" t="s">
         <v>530</v>
-      </c>
-      <c r="C15" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7580,10 +7871,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
         <v>234</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7591,10 +7882,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C17" t="s">
         <v>532</v>
-      </c>
-      <c r="C17" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7602,10 +7893,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C18" t="s">
         <v>534</v>
-      </c>
-      <c r="C18" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0267F-3961-F64D-889C-497261B556CC}">
   <dimension ref="B1:D12"/>
   <sheetViews>
@@ -7640,10 +7931,10 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
         <v>564</v>
-      </c>
-      <c r="C2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -7651,15 +7942,15 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" t="s">
         <v>567</v>
-      </c>
-      <c r="C4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -7675,7 +7966,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -7683,7 +7974,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -7691,15 +7982,15 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" t="s">
         <v>572</v>
-      </c>
-      <c r="C9" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -7715,7 +8006,7 @@
         <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -7723,7 +8014,7 @@
         <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -7731,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0D174-6E0A-4C40-A400-825ECAC5A597}">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -7759,26 +8050,26 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" t="s">
         <v>578</v>
-      </c>
-      <c r="C3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -7787,6 +8078,178 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF775CC9-C6C8-ED4F-B48D-81639A81E38C}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -7812,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7826,15 +8289,15 @@
         <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" t="s">
         <v>634</v>
-      </c>
-      <c r="C4" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -7842,7 +8305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386E297-D519-564E-ABC1-4EF5CC592387}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7872,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7883,10 +8346,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" t="s">
         <v>634</v>
-      </c>
-      <c r="C3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7894,10 +8357,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" t="s">
         <v>636</v>
-      </c>
-      <c r="C4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7905,10 +8368,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" t="s">
         <v>638</v>
-      </c>
-      <c r="C5" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7916,10 +8379,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" t="s">
         <v>640</v>
-      </c>
-      <c r="C6" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7930,7 +8393,7 @@
         <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -7938,7 +8401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -8018,7 +8481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -8103,11 +8566,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -8192,7 +8655,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -8433,7 +8896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -8477,7 +8940,7 @@
         <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,194 +9212,6 @@
       </c>
       <c r="C26" t="s">
         <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DBF6D-B685-024A-9FB1-496079B143F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E9DE4-A11D-0B4C-AD9E-113EB5A56724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="834">
   <si>
     <t>Object</t>
   </si>
@@ -3777,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -8079,10 +8079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF775CC9-C6C8-ED4F-B48D-81639A81E38C}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8230,17 +8230,9 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>633</v>
+        <v>829</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="C16" s="8" t="s">
         <v>830</v>
       </c>
     </row>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E9DE4-A11D-0B4C-AD9E-113EB5A56724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC1002-8584-1745-9A62-70CFB61995CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
     <sheet name="Monster" sheetId="25" r:id="rId2"/>
-    <sheet name="Tekening" sheetId="28" r:id="rId3"/>
-    <sheet name="Monster_Schelp" sheetId="27" r:id="rId4"/>
-    <sheet name="Monster_Botanie" sheetId="26" r:id="rId5"/>
-    <sheet name="Put" sheetId="2" r:id="rId6"/>
-    <sheet name="Vlak" sheetId="3" r:id="rId7"/>
-    <sheet name="Spoor" sheetId="4" r:id="rId8"/>
-    <sheet name="Vulling" sheetId="5" r:id="rId9"/>
-    <sheet name="Vondst" sheetId="6" r:id="rId10"/>
-    <sheet name="Stelling" sheetId="7" r:id="rId11"/>
-    <sheet name="Artefact" sheetId="8" r:id="rId12"/>
-    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId13"/>
-    <sheet name="Metaal" sheetId="11" r:id="rId14"/>
-    <sheet name="Munt" sheetId="12" r:id="rId15"/>
-    <sheet name="Schelp" sheetId="13" r:id="rId16"/>
-    <sheet name="Steen" sheetId="14" r:id="rId17"/>
-    <sheet name="Textiel" sheetId="15" r:id="rId18"/>
-    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId19"/>
-    <sheet name="Aardewerk" sheetId="17" r:id="rId20"/>
-    <sheet name="Glas" sheetId="18" r:id="rId21"/>
-    <sheet name="Hout" sheetId="19" r:id="rId22"/>
-    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId23"/>
-    <sheet name="Leer" sheetId="22" r:id="rId24"/>
-    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId25"/>
-    <sheet name="Fotokoppel" sheetId="24" r:id="rId26"/>
+    <sheet name="ABR" sheetId="29" r:id="rId3"/>
+    <sheet name="Tekening" sheetId="28" r:id="rId4"/>
+    <sheet name="Monster_Schelp" sheetId="27" r:id="rId5"/>
+    <sheet name="Monster_Botanie" sheetId="26" r:id="rId6"/>
+    <sheet name="Put" sheetId="2" r:id="rId7"/>
+    <sheet name="Vlak" sheetId="3" r:id="rId8"/>
+    <sheet name="Spoor" sheetId="4" r:id="rId9"/>
+    <sheet name="Vulling" sheetId="5" r:id="rId10"/>
+    <sheet name="Vondst" sheetId="6" r:id="rId11"/>
+    <sheet name="Stelling" sheetId="7" r:id="rId12"/>
+    <sheet name="Artefact" sheetId="8" r:id="rId13"/>
+    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId14"/>
+    <sheet name="Metaal" sheetId="11" r:id="rId15"/>
+    <sheet name="Munt" sheetId="12" r:id="rId16"/>
+    <sheet name="Schelp" sheetId="13" r:id="rId17"/>
+    <sheet name="Steen" sheetId="14" r:id="rId18"/>
+    <sheet name="Textiel" sheetId="15" r:id="rId19"/>
+    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId20"/>
+    <sheet name="Aardewerk" sheetId="17" r:id="rId21"/>
+    <sheet name="Glas" sheetId="18" r:id="rId22"/>
+    <sheet name="Hout" sheetId="19" r:id="rId23"/>
+    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId24"/>
+    <sheet name="Leer" sheetId="22" r:id="rId25"/>
+    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId26"/>
+    <sheet name="Fotokoppel" sheetId="24" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="869">
   <si>
     <t>Object</t>
   </si>
@@ -1863,9 +1864,6 @@
     <t>KER</t>
   </si>
   <si>
-    <t>STX</t>
-  </si>
-  <si>
     <t>GLS</t>
   </si>
   <si>
@@ -1902,9 +1900,6 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>Is geen code voor in ABR</t>
-  </si>
-  <si>
     <t>OTE</t>
   </si>
   <si>
@@ -2605,13 +2600,124 @@
   </si>
   <si>
     <t>tekeningcd</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>["primary_key"]</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>["concept"]</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>["code"]</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>['label']</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>['note']</t>
+  </si>
+  <si>
+    <t>beginjaar</t>
+  </si>
+  <si>
+    <t>eindjaar</t>
+  </si>
+  <si>
+    <t>bron</t>
+  </si>
+  <si>
+    <t>parentID</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>['beginjaar']</t>
+  </si>
+  <si>
+    <t>['eindjaar']</t>
+  </si>
+  <si>
+    <t>['bron']</t>
+  </si>
+  <si>
+    <t>['opmerkingen']</t>
+  </si>
+  <si>
+    <t>['parentID']</t>
+  </si>
+  <si>
+    <t>['uri']</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>["ABR"]</t>
+  </si>
+  <si>
+    <t>ABR-submateriaal</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/eb8d8e6b-c5e1-4ec5-950b-be8b9b799f20</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/1d2d66f1-de58-4082-8aa9-53a67599faf0</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/6d7809db-db25-4c09-90c3-e455f61148a9</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/db8feb21-8ddc-432f-8062-a3a15f7f7cf4</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/df8bf8b3-b4a9-4e10-b5f9-59234cc42bb0</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/bf251e68-ef3c-46e7-840d-3762166b9a8d</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/52ec1556-fa45-4e04-9fca-32f36c20d763</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/87a15ea6-0ed9-4bab-85bc-c0e32281e7ee</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/e9c85dbc-f215-4249-ba1f-7d84a22eaa82</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/d386b3f4-7aa9-4fe6-a64d-2b659fe6b197</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/e49a304e-08a3-4751-94ee-1bb507e49c72</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/9084ba17-eefe-44db-8eab-d7b746668d9b</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/ea0bcd79-31b9-4645-9783-add79577de3e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2635,6 +2741,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2736,24 +2850,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2766,12 +2880,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3098,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3110,10 +3225,11 @@
     <col min="3" max="3" width="53.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,8 +3245,11 @@
       <c r="F1" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3141,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3152,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3163,7 +3282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3174,7 +3293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3185,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3196,7 +3315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3207,7 +3326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>27</v>
       </c>
@@ -3218,7 +3337,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -3229,7 +3348,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3240,7 +3359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -3251,7 +3370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -3262,7 +3381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -3275,11 +3394,17 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="H14" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -3292,11 +3417,17 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="H15" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -3309,11 +3440,14 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="H16" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -3326,11 +3460,14 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="H17" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -3343,11 +3480,14 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="H18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -3355,33 +3495,39 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="F19" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="H19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="H20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -3389,21 +3535,27 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="H21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -3411,16 +3563,22 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="H22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C23" t="s">
         <v>559</v>
@@ -3428,28 +3586,40 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="H23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C24" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="H24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3462,11 +3632,17 @@
       <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="H25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3479,14 +3655,11 @@
       <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="F26" t="s">
-        <v>598</v>
-      </c>
-      <c r="G26" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3499,50 +3672,410 @@
       <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="H27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C28" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C30" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>853</v>
+      </c>
+      <c r="C31" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{30EA40D7-7ECE-4C4E-9C81-25E6BC5D6916}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{40C37C72-E563-7C49-BE21-8F6B83EAA566}"/>
+    <hyperlink ref="F22" r:id="rId3" xr:uid="{C7BCDDC4-DCE2-5541-865A-657BF28B8710}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{6970D2DC-E3BA-C54A-8001-540EFD29DE4E}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{9F4BC59A-3756-5643-AC54-565AF8AB49D5}"/>
+    <hyperlink ref="F27" r:id="rId6" xr:uid="{C5068105-E94D-AB41-B401-5140BC56FCC1}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{01684AC0-A88F-E34D-8599-CFD9CCABA66D}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{32809AC5-FE70-8843-8C08-229CDB8A1C1E}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{4C709E94-2D4A-2E47-8572-1F20FB605A51}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{BFFA1E12-134F-774E-8411-509A3441D5DD}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{7E596272-A81D-BF47-8BB2-35CE3CC2A65D}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{8D820533-C636-9D4A-AE3D-39E4692FD2B4}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{A1C8D6E1-4522-9949-B2BA-FCBDD0C63A32}"/>
+    <hyperlink ref="G14" r:id="rId14" xr:uid="{72E12E3E-5913-C84A-8E31-C85C99FBD593}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{C064080B-0DC7-2C42-9E27-458ABB5BB9E7}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{804ED6BF-97D8-894F-B3A6-1771ADB1A6F0}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{4D12CAF9-7415-A248-9FCE-17BACDDBBD90}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{B751360D-E2A6-8945-BBF7-7B891BAAA881}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{783040BA-D699-BE4D-88BC-55B3819C2E2B}"/>
+    <hyperlink ref="G27" r:id="rId20" xr:uid="{4ED51761-89CD-FA43-A2DB-3F57DE3640E3}"/>
+    <hyperlink ref="G25" r:id="rId21" xr:uid="{42E53C2C-9279-3F4E-A141-C97807584DAD}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3609,7 +4142,7 @@
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
         <v>179</v>
@@ -3631,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3730,7 +4263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3773,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -3821,7 +4354,7 @@
         <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,7 +4434,7 @@
         <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3920,10 +4453,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
+      </c>
+      <c r="C12" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,7 +4464,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C13" t="s">
         <v>538</v>
@@ -3942,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C14" t="s">
         <v>537</v>
@@ -3978,7 +4511,7 @@
         <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4171,7 +4704,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C35" t="s">
         <v>229</v>
@@ -4237,7 +4770,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C41" t="s">
         <v>236</v>
@@ -4260,7 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -4467,7 +5000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4586,7 +5119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4892,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4923,7 +5456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5057,7 +5590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:D1"/>
   <sheetViews>
@@ -5074,351 +5607,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>374</v>
-      </c>
-      <c r="C20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>376</v>
-      </c>
-      <c r="C21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>383</v>
-      </c>
-      <c r="C25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>385</v>
-      </c>
-      <c r="C26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>389</v>
-      </c>
-      <c r="C28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>391</v>
-      </c>
-      <c r="C29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>393</v>
-      </c>
-      <c r="C30" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5683,7 @@
         <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5504,10 +5692,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5519,7 +5707,7 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,10 +5716,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,7 +5731,7 @@
         <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,7 +5743,7 @@
         <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5567,7 +5755,7 @@
         <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,10 +5764,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,10 +5776,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,10 +5788,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5612,10 +5800,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5627,7 +5815,7 @@
         <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5636,10 +5824,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5648,13 +5836,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" t="s">
+        <v>645</v>
+      </c>
+      <c r="D18" t="s">
         <v>646</v>
-      </c>
-      <c r="C18" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5663,10 +5851,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5675,10 +5863,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5687,10 +5875,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5699,10 +5887,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C22" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,10 +5899,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5723,10 +5911,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C24" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5735,10 +5923,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5747,10 +5935,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C26" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5759,10 +5947,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5771,10 +5959,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5783,10 +5971,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,10 +5983,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C30" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5807,10 +5995,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5819,10 +6007,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C32" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5831,10 +6019,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5843,10 +6031,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5855,10 +6043,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C35" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5867,10 +6055,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5879,10 +6067,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C37" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5891,10 +6079,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5903,10 +6091,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C39" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5915,10 +6103,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C40" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5927,10 +6115,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C41" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5939,10 +6127,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5951,10 +6139,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C43" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5963,10 +6151,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C44" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5975,10 +6163,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5987,10 +6175,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C46" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -5999,10 +6187,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C47" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -6011,10 +6199,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C48" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -6023,10 +6211,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C49" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -6035,10 +6223,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C50" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -6047,10 +6235,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C51" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -6059,10 +6247,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C52" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -6071,10 +6259,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -6083,10 +6271,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C54" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -6095,10 +6283,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C55" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -6107,10 +6295,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C56" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,10 +6307,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C57" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -6131,10 +6319,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C58" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -6143,10 +6331,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C59" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -6155,10 +6343,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C60" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -6167,10 +6355,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C61" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -6179,10 +6367,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C62" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -6191,10 +6379,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C63" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -6203,10 +6391,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -6215,10 +6403,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C65" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -6227,10 +6415,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C66" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -6239,10 +6427,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C67" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,10 +6439,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C68" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -6263,10 +6451,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C69" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -6275,10 +6463,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C70" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -6287,10 +6475,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C71" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -6299,10 +6487,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C72" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -6311,10 +6499,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C73" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -6323,10 +6511,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C74" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -6335,10 +6523,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C75" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -6347,10 +6535,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C76" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -6359,10 +6547,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C77" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -6371,10 +6559,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C78" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -6383,10 +6571,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -6395,10 +6583,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C80" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6407,10 +6595,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C81" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -6419,10 +6607,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C82" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -6431,10 +6619,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C83" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -6443,10 +6631,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C84" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -6455,10 +6643,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C85" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -6467,10 +6655,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C86" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -6479,10 +6667,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C87" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6491,10 +6679,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C88" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -6503,10 +6691,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C89" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -6515,10 +6703,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C90" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -6527,10 +6715,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C91" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -6539,10 +6727,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C92" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -6551,10 +6739,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C93" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -6563,10 +6751,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C94" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6575,10 +6763,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C95" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -6587,10 +6775,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C96" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -6599,10 +6787,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C97" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,10 +6799,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C98" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -6623,10 +6811,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C99" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6635,10 +6823,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C100" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -6647,6 +6835,351 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -6973,7 +7506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7188,7 +7721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -7388,7 +7921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -7687,7 +8220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7904,7 +8437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0267F-3961-F64D-889C-497261B556CC}">
   <dimension ref="B1:D12"/>
   <sheetViews>
@@ -8022,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0D174-6E0A-4C40-A400-825ECAC5A597}">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -8078,10 +8611,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031EEAA-8CBE-224C-882A-D80708C8602F}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF775CC9-C6C8-ED4F-B48D-81639A81E38C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -8091,149 +8787,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -8263,14 +8959,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8281,15 +8977,15 @@
         <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386E297-D519-564E-ABC1-4EF5CC592387}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8323,14 +9019,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8338,10 +9034,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8349,10 +9045,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8360,10 +9056,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8371,10 +9067,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,7 +9081,7 @@
         <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8393,7 +9089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -8473,7 +9169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -8558,7 +9254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -8647,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -8881,329 +9577,6 @@
       </c>
       <c r="D26" t="s">
         <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC1002-8584-1745-9A62-70CFB61995CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB56E2-A60F-FA4C-AB34-B209B23E516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="868">
   <si>
     <t>Object</t>
   </si>
@@ -2705,9 +2705,6 @@
   </si>
   <si>
     <t>https://data.cultureelerfgoed.nl/term/id/abr/e49a304e-08a3-4751-94ee-1bb507e49c72</t>
-  </si>
-  <si>
-    <t>https://data.cultureelerfgoed.nl/term/id/abr/9084ba17-eefe-44db-8eab-d7b746668d9b</t>
   </si>
   <si>
     <t>https://data.cultureelerfgoed.nl/term/id/abr/ea0bcd79-31b9-4645-9783-add79577de3e</t>
@@ -3215,17 +3212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3544,7 +3541,7 @@
         <v>858</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="H21" t="s">
         <v>588</v>
@@ -3636,7 +3633,7 @@
         <v>866</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H25" t="s">
         <v>596</v>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,45 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB56E2-A60F-FA4C-AB34-B209B23E516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFBDDD-138A-B341-B2D7-C87DA0595FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
-    <sheet name="Monster" sheetId="25" r:id="rId2"/>
-    <sheet name="ABR" sheetId="29" r:id="rId3"/>
-    <sheet name="Tekening" sheetId="28" r:id="rId4"/>
-    <sheet name="Monster_Schelp" sheetId="27" r:id="rId5"/>
-    <sheet name="Monster_Botanie" sheetId="26" r:id="rId6"/>
-    <sheet name="Put" sheetId="2" r:id="rId7"/>
-    <sheet name="Vlak" sheetId="3" r:id="rId8"/>
-    <sheet name="Spoor" sheetId="4" r:id="rId9"/>
-    <sheet name="Vulling" sheetId="5" r:id="rId10"/>
-    <sheet name="Vondst" sheetId="6" r:id="rId11"/>
-    <sheet name="Stelling" sheetId="7" r:id="rId12"/>
-    <sheet name="Artefact" sheetId="8" r:id="rId13"/>
-    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId14"/>
-    <sheet name="Metaal" sheetId="11" r:id="rId15"/>
-    <sheet name="Munt" sheetId="12" r:id="rId16"/>
-    <sheet name="Schelp" sheetId="13" r:id="rId17"/>
-    <sheet name="Steen" sheetId="14" r:id="rId18"/>
-    <sheet name="Textiel" sheetId="15" r:id="rId19"/>
-    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId20"/>
-    <sheet name="Aardewerk" sheetId="17" r:id="rId21"/>
-    <sheet name="Glas" sheetId="18" r:id="rId22"/>
-    <sheet name="Hout" sheetId="19" r:id="rId23"/>
-    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId24"/>
-    <sheet name="Leer" sheetId="22" r:id="rId25"/>
-    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId26"/>
-    <sheet name="Fotokoppel" sheetId="24" r:id="rId27"/>
+    <sheet name="Rapport" sheetId="30" r:id="rId2"/>
+    <sheet name="Monster" sheetId="25" r:id="rId3"/>
+    <sheet name="ABR" sheetId="29" r:id="rId4"/>
+    <sheet name="Tekening" sheetId="28" r:id="rId5"/>
+    <sheet name="Monster_Schelp" sheetId="27" r:id="rId6"/>
+    <sheet name="Monster_Botanie" sheetId="26" r:id="rId7"/>
+    <sheet name="Put" sheetId="2" r:id="rId8"/>
+    <sheet name="Vlak" sheetId="3" r:id="rId9"/>
+    <sheet name="Spoor" sheetId="4" r:id="rId10"/>
+    <sheet name="Vulling" sheetId="5" r:id="rId11"/>
+    <sheet name="Vondst" sheetId="6" r:id="rId12"/>
+    <sheet name="Stelling" sheetId="7" r:id="rId13"/>
+    <sheet name="Artefact" sheetId="8" r:id="rId14"/>
+    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId15"/>
+    <sheet name="Metaal" sheetId="11" r:id="rId16"/>
+    <sheet name="Munt" sheetId="12" r:id="rId17"/>
+    <sheet name="Schelp" sheetId="13" r:id="rId18"/>
+    <sheet name="Steen" sheetId="14" r:id="rId19"/>
+    <sheet name="Textiel" sheetId="15" r:id="rId20"/>
+    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId21"/>
+    <sheet name="Aardewerk" sheetId="17" r:id="rId22"/>
+    <sheet name="Glas" sheetId="18" r:id="rId23"/>
+    <sheet name="Hout" sheetId="19" r:id="rId24"/>
+    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId25"/>
+    <sheet name="Leer" sheetId="22" r:id="rId26"/>
+    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId27"/>
+    <sheet name="Fotokoppel" sheetId="24" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="897">
   <si>
     <t>Object</t>
   </si>
@@ -2708,6 +2709,93 @@
   </si>
   <si>
     <t>https://data.cultureelerfgoed.nl/term/id/abr/ea0bcd79-31b9-4645-9783-add79577de3e</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>gemeente</t>
+  </si>
+  <si>
+    <t>["Gemeente"]</t>
+  </si>
+  <si>
+    <t>["Plaats"]</t>
+  </si>
+  <si>
+    <t>["Auteur"]</t>
+  </si>
+  <si>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>jaar_uitgave</t>
+  </si>
+  <si>
+    <t>['Jaar van uitgave']</t>
+  </si>
+  <si>
+    <t>['DANnummer', 'DARnummer', 'DANnr', 'DARnr']</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>['Titel']</t>
+  </si>
+  <si>
+    <t>projectcd</t>
+  </si>
+  <si>
+    <t>ciscode</t>
+  </si>
+  <si>
+    <t>['Ciscode']</t>
+  </si>
+  <si>
+    <t>periode_uitvoering</t>
+  </si>
+  <si>
+    <t>['Periode uitvoering']</t>
+  </si>
+  <si>
+    <t>definitief</t>
+  </si>
+  <si>
+    <t>['definitief']</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>['ROB']</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>['KB']</t>
+  </si>
+  <si>
+    <t>archief</t>
+  </si>
+  <si>
+    <t>['Archief']</t>
+  </si>
+  <si>
+    <t>type_onderzoek</t>
+  </si>
+  <si>
+    <t>['Type onderzoek']</t>
+  </si>
+  <si>
+    <t>['Code', 'Projectcode']</t>
+  </si>
+  <si>
+    <t>rapportnr</t>
+  </si>
+  <si>
+    <t>["DANlijst", "DARlijst"]</t>
   </si>
 </sst>
 </file>
@@ -3210,19 +3298,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" customWidth="1"/>
     <col min="7" max="7" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3713,11 +3801,25 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>853</v>
       </c>
       <c r="C31" t="s">
         <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>868</v>
+      </c>
+      <c r="C32" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -3750,6 +3852,336 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4072,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4260,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4303,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -4790,7 +5222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -4997,7 +5429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5116,7 +5548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -5422,7 +5854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -5453,7 +5885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5587,36 +6019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="B1:D1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C687B-D5EB-1F49-BC93-522FCCA29282}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
-  <dimension ref="A1:D100"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5641,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>869</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5653,22 +6061,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>873</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5677,10 +6085,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>874</v>
       </c>
       <c r="C5" t="s">
-        <v>615</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5689,10 +6097,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>895</v>
       </c>
       <c r="C6" t="s">
-        <v>617</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5701,10 +6109,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>877</v>
       </c>
       <c r="C7" t="s">
-        <v>618</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5713,10 +6121,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>879</v>
       </c>
       <c r="C8" t="s">
-        <v>620</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,10 +6133,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>880</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5737,10 +6145,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>882</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
+        <v>883</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5749,10 +6157,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>884</v>
       </c>
       <c r="C11" t="s">
-        <v>622</v>
+        <v>885</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5761,10 +6169,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>886</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5773,10 +6181,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>648</v>
+        <v>888</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5785,10 +6193,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>649</v>
+        <v>890</v>
       </c>
       <c r="C14" t="s">
-        <v>650</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5797,1033 +6205,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>625</v>
+        <v>892</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>628</v>
-      </c>
-      <c r="C17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>644</v>
-      </c>
-      <c r="C18" t="s">
-        <v>645</v>
-      </c>
-      <c r="D18" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-      <c r="C19" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>653</v>
-      </c>
-      <c r="C21" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>654</v>
-      </c>
-      <c r="C22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>655</v>
-      </c>
-      <c r="C23" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>656</v>
-      </c>
-      <c r="C24" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>657</v>
-      </c>
-      <c r="C25" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>658</v>
-      </c>
-      <c r="C26" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>667</v>
-      </c>
-      <c r="C27" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>791</v>
-      </c>
-      <c r="C28" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>792</v>
-      </c>
-      <c r="C29" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>793</v>
-      </c>
-      <c r="C30" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C31" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>673</v>
-      </c>
-      <c r="C32" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>675</v>
-      </c>
-      <c r="C33" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>677</v>
-      </c>
-      <c r="C34" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>679</v>
-      </c>
-      <c r="C35" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>681</v>
-      </c>
-      <c r="C36" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>683</v>
-      </c>
-      <c r="C37" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>685</v>
-      </c>
-      <c r="C38" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>687</v>
-      </c>
-      <c r="C39" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>689</v>
-      </c>
-      <c r="C40" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>691</v>
-      </c>
-      <c r="C41" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>693</v>
-      </c>
-      <c r="C42" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>695</v>
-      </c>
-      <c r="C43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>697</v>
-      </c>
-      <c r="C44" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>795</v>
-      </c>
-      <c r="C45" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>796</v>
-      </c>
-      <c r="C46" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>809</v>
-      </c>
-      <c r="C47" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>702</v>
-      </c>
-      <c r="C48" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>810</v>
-      </c>
-      <c r="C49" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>705</v>
-      </c>
-      <c r="C50" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>707</v>
-      </c>
-      <c r="C51" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>797</v>
-      </c>
-      <c r="C52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>710</v>
-      </c>
-      <c r="C53" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>712</v>
-      </c>
-      <c r="C54" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>714</v>
-      </c>
-      <c r="C55" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>811</v>
-      </c>
-      <c r="C56" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>717</v>
-      </c>
-      <c r="C57" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>719</v>
-      </c>
-      <c r="C58" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>721</v>
-      </c>
-      <c r="C59" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>723</v>
-      </c>
-      <c r="C60" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>725</v>
-      </c>
-      <c r="C61" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>727</v>
-      </c>
-      <c r="C62" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>729</v>
-      </c>
-      <c r="C63" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>731</v>
-      </c>
-      <c r="C64" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>733</v>
-      </c>
-      <c r="C65" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>798</v>
-      </c>
-      <c r="C66" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>799</v>
-      </c>
-      <c r="C67" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <f t="shared" ref="A68:A100" si="1">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>800</v>
-      </c>
-      <c r="C68" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>801</v>
-      </c>
-      <c r="C69" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>802</v>
-      </c>
-      <c r="C70" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>803</v>
-      </c>
-      <c r="C71" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>804</v>
-      </c>
-      <c r="C72" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>805</v>
-      </c>
-      <c r="C73" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>743</v>
-      </c>
-      <c r="C74" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>745</v>
-      </c>
-      <c r="C75" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>747</v>
-      </c>
-      <c r="C76" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>749</v>
-      </c>
-      <c r="C77" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>751</v>
-      </c>
-      <c r="C78" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>753</v>
-      </c>
-      <c r="C79" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>755</v>
-      </c>
-      <c r="C80" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>757</v>
-      </c>
-      <c r="C81" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>759</v>
-      </c>
-      <c r="C82" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>761</v>
-      </c>
-      <c r="C83" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>812</v>
-      </c>
-      <c r="C84" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>764</v>
-      </c>
-      <c r="C85" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>766</v>
-      </c>
-      <c r="C86" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>768</v>
-      </c>
-      <c r="C87" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>770</v>
-      </c>
-      <c r="C88" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>806</v>
-      </c>
-      <c r="C89" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>807</v>
-      </c>
-      <c r="C90" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>813</v>
-      </c>
-      <c r="C91" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>775</v>
-      </c>
-      <c r="C92" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>814</v>
-      </c>
-      <c r="C93" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>778</v>
-      </c>
-      <c r="C94" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>780</v>
-      </c>
-      <c r="C95" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>782</v>
-      </c>
-      <c r="C96" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>784</v>
-      </c>
-      <c r="C97" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>786</v>
-      </c>
-      <c r="C98" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>808</v>
-      </c>
-      <c r="C99" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>789</v>
-      </c>
-      <c r="C100" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -6832,6 +6217,30 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -7176,7 +6585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -7503,7 +6912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7718,7 +7127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -7918,7 +7327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -8217,7 +7626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -8434,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0267F-3961-F64D-889C-497261B556CC}">
   <dimension ref="B1:D12"/>
   <sheetViews>
@@ -8552,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0D174-6E0A-4C40-A400-825ECAC5A597}">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -8608,11 +8017,1231 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" t="s">
+        <v>645</v>
+      </c>
+      <c r="D18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C20" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C23" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>667</v>
+      </c>
+      <c r="C27" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>791</v>
+      </c>
+      <c r="C28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>792</v>
+      </c>
+      <c r="C29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C31" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>675</v>
+      </c>
+      <c r="C33" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>677</v>
+      </c>
+      <c r="C34" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C36" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C37" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>691</v>
+      </c>
+      <c r="C41" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>795</v>
+      </c>
+      <c r="C45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>796</v>
+      </c>
+      <c r="C46" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>809</v>
+      </c>
+      <c r="C47" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>702</v>
+      </c>
+      <c r="C48" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>810</v>
+      </c>
+      <c r="C49" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>705</v>
+      </c>
+      <c r="C50" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>707</v>
+      </c>
+      <c r="C51" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>797</v>
+      </c>
+      <c r="C52" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>710</v>
+      </c>
+      <c r="C53" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>712</v>
+      </c>
+      <c r="C54" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>714</v>
+      </c>
+      <c r="C55" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>811</v>
+      </c>
+      <c r="C56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>717</v>
+      </c>
+      <c r="C57" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>719</v>
+      </c>
+      <c r="C58" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>721</v>
+      </c>
+      <c r="C59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>723</v>
+      </c>
+      <c r="C60" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>725</v>
+      </c>
+      <c r="C61" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>727</v>
+      </c>
+      <c r="C62" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>729</v>
+      </c>
+      <c r="C63" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>731</v>
+      </c>
+      <c r="C64" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>733</v>
+      </c>
+      <c r="C65" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>798</v>
+      </c>
+      <c r="C66" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>799</v>
+      </c>
+      <c r="C67" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>800</v>
+      </c>
+      <c r="C68" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>801</v>
+      </c>
+      <c r="C69" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>802</v>
+      </c>
+      <c r="C70" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>803</v>
+      </c>
+      <c r="C71" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>804</v>
+      </c>
+      <c r="C72" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>805</v>
+      </c>
+      <c r="C73" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>743</v>
+      </c>
+      <c r="C74" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>745</v>
+      </c>
+      <c r="C75" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>747</v>
+      </c>
+      <c r="C76" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>749</v>
+      </c>
+      <c r="C77" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>751</v>
+      </c>
+      <c r="C78" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>753</v>
+      </c>
+      <c r="C79" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>755</v>
+      </c>
+      <c r="C80" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>757</v>
+      </c>
+      <c r="C81" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>759</v>
+      </c>
+      <c r="C82" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>761</v>
+      </c>
+      <c r="C83" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>812</v>
+      </c>
+      <c r="C84" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>764</v>
+      </c>
+      <c r="C85" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>766</v>
+      </c>
+      <c r="C86" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>768</v>
+      </c>
+      <c r="C87" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>770</v>
+      </c>
+      <c r="C88" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>806</v>
+      </c>
+      <c r="C89" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>807</v>
+      </c>
+      <c r="C90" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>813</v>
+      </c>
+      <c r="C91" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>775</v>
+      </c>
+      <c r="C92" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>778</v>
+      </c>
+      <c r="C94" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>780</v>
+      </c>
+      <c r="C95" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>782</v>
+      </c>
+      <c r="C96" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>784</v>
+      </c>
+      <c r="C97" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>786</v>
+      </c>
+      <c r="C98" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>808</v>
+      </c>
+      <c r="C99" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>789</v>
+      </c>
+      <c r="C100" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031EEAA-8CBE-224C-882A-D80708C8602F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8647,6 +9276,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -8659,6 +9289,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -8671,6 +9302,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -8683,6 +9315,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -8695,7 +9328,8 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>842</v>
@@ -8707,7 +9341,8 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>843</v>
@@ -8719,7 +9354,8 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>844</v>
@@ -8731,7 +9367,8 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>215</v>
@@ -8743,7 +9380,8 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>845</v>
@@ -8755,7 +9393,8 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>846</v>
@@ -8770,7 +9409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF775CC9-C6C8-ED4F-B48D-81639A81E38C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -8934,7 +9573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -8990,7 +9629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386E297-D519-564E-ABC1-4EF5CC592387}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -9086,7 +9725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -9166,7 +9805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -9249,334 +9888,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFBDDD-138A-B341-B2D7-C87DA0595FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093040E-F751-FF4C-8FAD-448A5C3B711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="898">
   <si>
     <t>Object</t>
   </si>
@@ -2796,6 +2796,9 @@
   </si>
   <si>
     <t>["DANlijst", "DARlijst"]</t>
+  </si>
+  <si>
+    <t>https://data.cultureelerfgoed.nl/term/id/abr/9084ba17-eefe-44db-8eab-d7b746668d9b</t>
   </si>
 </sst>
 </file>
@@ -3300,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3629,7 +3632,7 @@
         <v>858</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="H21" t="s">
         <v>588</v>
@@ -3835,16 +3838,16 @@
     <hyperlink ref="F18" r:id="rId9" xr:uid="{4C709E94-2D4A-2E47-8572-1F20FB605A51}"/>
     <hyperlink ref="F19" r:id="rId10" xr:uid="{BFFA1E12-134F-774E-8411-509A3441D5DD}"/>
     <hyperlink ref="F20" r:id="rId11" xr:uid="{7E596272-A81D-BF47-8BB2-35CE3CC2A65D}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{8D820533-C636-9D4A-AE3D-39E4692FD2B4}"/>
-    <hyperlink ref="F23" r:id="rId13" xr:uid="{A1C8D6E1-4522-9949-B2BA-FCBDD0C63A32}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{72E12E3E-5913-C84A-8E31-C85C99FBD593}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{C064080B-0DC7-2C42-9E27-458ABB5BB9E7}"/>
-    <hyperlink ref="G21" r:id="rId16" xr:uid="{804ED6BF-97D8-894F-B3A6-1771ADB1A6F0}"/>
-    <hyperlink ref="G22" r:id="rId17" xr:uid="{4D12CAF9-7415-A248-9FCE-17BACDDBBD90}"/>
-    <hyperlink ref="G23" r:id="rId18" xr:uid="{B751360D-E2A6-8945-BBF7-7B891BAAA881}"/>
-    <hyperlink ref="G24" r:id="rId19" xr:uid="{783040BA-D699-BE4D-88BC-55B3819C2E2B}"/>
-    <hyperlink ref="G27" r:id="rId20" xr:uid="{4ED51761-89CD-FA43-A2DB-3F57DE3640E3}"/>
-    <hyperlink ref="G25" r:id="rId21" xr:uid="{42E53C2C-9279-3F4E-A141-C97807584DAD}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{A1C8D6E1-4522-9949-B2BA-FCBDD0C63A32}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{72E12E3E-5913-C84A-8E31-C85C99FBD593}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{C064080B-0DC7-2C42-9E27-458ABB5BB9E7}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{804ED6BF-97D8-894F-B3A6-1771ADB1A6F0}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{4D12CAF9-7415-A248-9FCE-17BACDDBBD90}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{B751360D-E2A6-8945-BBF7-7B891BAAA881}"/>
+    <hyperlink ref="G24" r:id="rId18" xr:uid="{783040BA-D699-BE4D-88BC-55B3819C2E2B}"/>
+    <hyperlink ref="G27" r:id="rId19" xr:uid="{4ED51761-89CD-FA43-A2DB-3F57DE3640E3}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{42E53C2C-9279-3F4E-A141-C97807584DAD}"/>
+    <hyperlink ref="F21" r:id="rId21" xr:uid="{087416B1-3D05-8C4B-8A4C-B8850620DE7D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId22"/>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093040E-F751-FF4C-8FAD-448A5C3B711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD19592-BADD-2144-BE77-C444EA517A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Spoor</t>
   </si>
   <si>
-    <t>["^SPOREN$", "^SPOOR$"]</t>
-  </si>
-  <si>
     <t>Vulling</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Onbekend</t>
   </si>
   <si>
-    <t>["ARTF_ODX", "ARTF_OPX", "ARTF_OXX"]</t>
-  </si>
-  <si>
     <t>Textiel</t>
   </si>
   <si>
@@ -1718,12 +1712,6 @@
     <t>['VONDST', 'Vondst', 'vondst', 'VONDSTNO', 'vondstnr', 'Vondst I', 'Vondst etc']</t>
   </si>
   <si>
-    <t>['DAT_BEGIN', 'DATUM BEGIN', '3a', 'DAT_BEG', 'BEGINDAT']</t>
-  </si>
-  <si>
-    <t>['DATUM EIND', '3b', 'DAT_EIND', 'EINDDAT']</t>
-  </si>
-  <si>
     <t>['MAT', 'MATERIAAL']</t>
   </si>
   <si>
@@ -1748,9 +1736,6 @@
     <t>doos_lumc</t>
   </si>
   <si>
-    <t>['7avoorwerp', '7a', 'TYPE', 'TYPE_CODE', 'VOORWERP', 'SOORT_VW', '2', 'GROEP']</t>
-  </si>
-  <si>
     <t>formaat_verticaal</t>
   </si>
   <si>
@@ -1910,9 +1895,6 @@
     <t>["VONDSTOMSTH", "VERZMWIJZE"]</t>
   </si>
   <si>
-    <t>['TOTAANTAL', 'AANTAL', '4b1']</t>
-  </si>
-  <si>
     <t>['COMPLEET', '6d', 'COMPL', 'FRAGM']</t>
   </si>
   <si>
@@ -2799,6 +2781,24 @@
   </si>
   <si>
     <t>https://data.cultureelerfgoed.nl/term/id/abr/9084ba17-eefe-44db-8eab-d7b746668d9b</t>
+  </si>
+  <si>
+    <t>['DATUM EIND', '3b', 'DAT_EIND', 'EINDDAT', 'DATERING1']</t>
+  </si>
+  <si>
+    <t>['DAT_BEGIN', 'DATUM BEGIN', '3a', 'DAT_BEG', 'BEGINDAT', 'DATERING2']</t>
+  </si>
+  <si>
+    <t>['VOORWERP', '7avoorwerp', '7a', 'TYPE', 'TYPE_CODE', 'SOORT_VW', '2', 'GROEP']</t>
+  </si>
+  <si>
+    <t>["^SPOREN$", "^SPOOR$", "sporen"]</t>
+  </si>
+  <si>
+    <t>["ARTF_ODX", "ARTF_OPX", "ARTF_OXX", "DELFHOUT"]</t>
+  </si>
+  <si>
+    <t>['TOTAANTAL', 'AANTAL', '4b1', 'aant']</t>
   </si>
 </sst>
 </file>
@@ -3303,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A3" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3331,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3378,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3386,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3397,10 +3397,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3408,10 +3408,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3419,10 +3419,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3430,10 +3430,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,10 +3441,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3452,10 +3452,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3463,10 +3463,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3474,22 +3474,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="H14" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3497,22 +3497,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="H15" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3520,19 +3520,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="H16" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3540,19 +3540,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="H17" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3560,19 +3560,19 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,19 +3580,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3600,19 +3600,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H20" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,22 +3620,22 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H21" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3643,22 +3643,22 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H22" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3666,22 +3666,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C23" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>864</v>
-      </c>
       <c r="H23" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3689,22 +3689,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C24" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="H24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,22 +3712,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="H25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3735,16 +3735,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>896</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3752,22 +3752,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3775,10 +3775,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C28" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3786,10 +3786,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C29" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3797,10 +3797,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C30" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3808,10 +3808,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C31" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3819,10 +3819,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C32" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -3871,13 +3871,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3885,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3907,10 +3907,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3918,13 +3918,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3932,10 +3932,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3954,10 +3954,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3965,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3976,10 +3976,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3987,10 +3987,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,10 +3998,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,10 +4009,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,10 +4020,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,10 +4031,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,13 +4042,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,10 +4056,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,13 +4067,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,13 +4081,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,13 +4095,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,13 +4109,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,10 +4123,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4134,10 +4134,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4145,10 +4145,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4156,13 +4156,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
         <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4170,13 +4170,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4200,13 +4200,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,10 +4236,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4247,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4258,10 +4258,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,13 +4269,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,10 +4294,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,10 +4305,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4316,13 +4316,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,10 +4330,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4341,13 +4341,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4355,13 +4355,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
         <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4369,13 +4369,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
         <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4383,10 +4383,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4394,13 +4394,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
         <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4408,10 +4408,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4430,10 +4430,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4441,10 +4441,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,10 +4452,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4463,10 +4463,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,10 +4474,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4485,10 +4485,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4496,10 +4496,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4524,13 +4524,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,10 +4560,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,13 +4571,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,10 +4585,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4596,10 +4596,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4607,10 +4607,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,10 +4618,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4629,10 +4629,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4640,10 +4640,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4651,10 +4651,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,10 +4662,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,10 +4673,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,10 +4684,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4705,10 +4705,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4716,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4742,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4755,13 +4755,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4769,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4783,10 +4783,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4794,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4805,10 +4805,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,10 +4816,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,13 +4827,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,10 +4841,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4852,10 +4852,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4863,10 +4863,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4874,10 +4874,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,10 +4885,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,10 +4896,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C13" t="s">
-        <v>538</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4907,10 +4907,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C14" t="s">
-        <v>537</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4918,10 +4918,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4929,10 +4929,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4940,10 +4940,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4962,10 +4962,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4973,10 +4973,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4984,10 +4984,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4995,10 +4995,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5006,10 +5006,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5017,19 +5017,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C25" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5037,10 +5037,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5048,10 +5048,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5059,10 +5059,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5070,10 +5070,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5081,10 +5081,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5103,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,10 +5114,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5125,10 +5125,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,10 +5136,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5147,10 +5147,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5158,10 +5158,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5169,10 +5169,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5180,10 +5180,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5191,10 +5191,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5202,10 +5202,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5213,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C42" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -5242,13 +5242,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5256,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5278,10 +5278,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5289,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5300,10 +5300,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5311,10 +5311,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5322,10 +5322,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,10 +5333,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,10 +5344,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,10 +5355,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,10 +5366,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5377,10 +5377,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,10 +5388,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5399,10 +5399,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5410,10 +5410,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5421,10 +5421,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5449,13 +5449,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5485,10 +5485,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5496,10 +5496,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5507,10 +5507,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5518,10 +5518,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,10 +5529,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,10 +5540,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5568,13 +5568,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5604,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5615,10 +5615,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,10 +5626,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5637,10 +5637,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5648,10 +5648,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5659,10 +5659,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5670,10 +5670,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5681,10 +5681,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,10 +5692,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5703,10 +5703,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5714,10 +5714,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,10 +5725,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5736,10 +5736,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5747,10 +5747,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5758,10 +5758,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5769,10 +5769,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,10 +5780,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5791,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5802,10 +5802,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5813,10 +5813,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5824,10 +5824,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5835,10 +5835,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5846,10 +5846,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5871,16 +5871,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5898,13 +5898,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,10 +5923,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5934,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5945,10 +5945,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5956,10 +5956,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5967,10 +5967,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5978,10 +5978,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5989,10 +5989,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6000,10 +6000,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6011,10 +6011,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -6038,13 +6038,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6064,10 +6064,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6076,10 +6076,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C4" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6088,10 +6088,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6100,10 +6100,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C6" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6112,10 +6112,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6124,10 +6124,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C8" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6136,10 +6136,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C9" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C10" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6160,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C11" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6172,10 +6172,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C12" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C13" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6196,10 +6196,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C14" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6208,10 +6208,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C15" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -6229,13 +6229,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6255,13 +6255,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6269,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6280,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6291,10 +6291,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6302,10 +6302,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,10 +6313,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6324,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6335,10 +6335,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6346,10 +6346,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6357,10 +6357,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6368,10 +6368,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6379,10 +6379,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6390,10 +6390,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6401,10 +6401,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6412,10 +6412,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6423,10 +6423,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6434,10 +6434,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6445,10 +6445,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6456,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6467,10 +6467,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6478,10 +6478,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6489,10 +6489,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6500,10 +6500,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6511,10 +6511,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6522,10 +6522,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6533,10 +6533,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6544,10 +6544,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6555,10 +6555,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6566,10 +6566,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6577,10 +6577,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6604,13 +6604,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6618,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6629,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6640,10 +6640,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6651,10 +6651,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,10 +6662,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6673,10 +6673,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6684,10 +6684,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6695,10 +6695,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,10 +6706,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6717,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6728,10 +6728,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6739,10 +6739,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6750,10 +6750,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,10 +6761,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6772,10 +6772,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6783,10 +6783,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6794,10 +6794,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6805,10 +6805,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6816,10 +6816,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6827,10 +6827,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6838,10 +6838,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6849,10 +6849,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6860,10 +6860,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6871,10 +6871,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6882,10 +6882,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6893,10 +6893,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6904,10 +6904,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6929,13 +6929,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,10 +6943,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6965,10 +6965,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6976,10 +6976,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6987,10 +6987,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6998,10 +6998,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7009,10 +7009,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7020,10 +7020,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7042,10 +7042,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7053,10 +7053,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7064,10 +7064,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7075,10 +7075,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7086,10 +7086,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,10 +7097,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7108,10 +7108,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7119,10 +7119,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -7140,13 +7140,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7154,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7165,10 +7165,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7176,10 +7176,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7187,10 +7187,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7198,10 +7198,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7209,10 +7209,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,10 +7220,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7231,10 +7231,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7242,10 +7242,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7253,10 +7253,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7264,10 +7264,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7275,10 +7275,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7286,10 +7286,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7297,10 +7297,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,10 +7308,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7319,10 +7319,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7340,13 +7340,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7354,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7376,10 +7376,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7387,10 +7387,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7398,10 +7398,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7409,10 +7409,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7420,10 +7420,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7431,10 +7431,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7442,10 +7442,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,10 +7453,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7464,10 +7464,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7475,10 +7475,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7486,10 +7486,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7497,10 +7497,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7508,10 +7508,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7519,10 +7519,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7530,10 +7530,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7541,10 +7541,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7552,10 +7552,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7563,10 +7563,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7574,10 +7574,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7585,10 +7585,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7596,10 +7596,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7607,10 +7607,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7618,10 +7618,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7645,13 +7645,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7659,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7670,10 +7670,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7681,10 +7681,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,10 +7692,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7703,10 +7703,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7714,10 +7714,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7725,10 +7725,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7736,10 +7736,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7747,10 +7747,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7758,10 +7758,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7769,10 +7769,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7780,10 +7780,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7791,10 +7791,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7802,10 +7802,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7813,10 +7813,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7824,10 +7824,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7835,10 +7835,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -7862,101 +7862,101 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -7981,37 +7981,37 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -8035,13 +8035,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8049,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,10 +8061,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8073,10 +8073,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8085,10 +8085,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,10 +8097,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,10 +8109,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8121,10 +8121,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C8" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,10 +8133,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,10 +8145,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8157,10 +8157,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8169,10 +8169,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,10 +8181,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C13" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,10 +8193,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8205,10 +8205,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,10 +8217,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8229,10 +8229,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C17" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8241,13 +8241,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C18" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D18" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -8256,10 +8256,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C19" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8268,10 +8268,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C20" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -8280,10 +8280,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C21" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8292,10 +8292,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C22" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -8304,10 +8304,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C23" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8316,10 +8316,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C24" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -8328,10 +8328,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C25" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -8340,10 +8340,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C26" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -8352,10 +8352,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C27" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8364,10 +8364,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C28" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -8376,10 +8376,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C29" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -8388,10 +8388,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C30" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8400,10 +8400,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C31" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8412,10 +8412,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C32" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -8424,10 +8424,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C33" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8436,10 +8436,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C34" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8448,10 +8448,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -8460,10 +8460,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C36" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -8472,10 +8472,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C37" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -8484,10 +8484,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C38" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -8496,10 +8496,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C39" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -8508,10 +8508,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C40" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -8520,10 +8520,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C41" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -8532,10 +8532,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C42" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -8544,10 +8544,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C43" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -8556,10 +8556,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C44" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -8568,10 +8568,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C45" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -8580,10 +8580,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C46" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -8592,10 +8592,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C47" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -8604,10 +8604,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C48" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -8616,10 +8616,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C49" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -8628,10 +8628,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C50" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -8640,10 +8640,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C51" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -8652,10 +8652,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C52" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -8664,10 +8664,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C53" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C54" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,10 +8688,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C55" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -8700,10 +8700,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C56" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -8712,10 +8712,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C57" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -8724,10 +8724,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C58" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -8736,10 +8736,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C59" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -8748,10 +8748,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C60" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -8760,10 +8760,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C61" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -8772,10 +8772,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C62" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -8784,10 +8784,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C63" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -8796,10 +8796,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C64" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -8808,10 +8808,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C65" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -8820,10 +8820,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C66" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -8832,10 +8832,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C67" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -8844,10 +8844,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C68" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -8856,10 +8856,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C69" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -8868,10 +8868,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C70" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -8880,10 +8880,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C71" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -8892,10 +8892,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C72" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -8904,10 +8904,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C73" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -8916,10 +8916,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C74" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -8928,10 +8928,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C75" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -8940,10 +8940,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C76" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -8952,10 +8952,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C77" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -8964,10 +8964,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C78" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -8976,10 +8976,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C79" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -8988,10 +8988,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C80" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -9000,10 +9000,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C81" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -9012,10 +9012,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C82" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -9024,10 +9024,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C83" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -9036,10 +9036,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C84" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -9048,10 +9048,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C85" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -9060,10 +9060,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C86" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -9072,10 +9072,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C87" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -9084,10 +9084,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C88" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -9096,10 +9096,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C89" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -9108,10 +9108,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C90" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -9120,10 +9120,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C91" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -9132,10 +9132,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C92" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -9144,10 +9144,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C93" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -9156,10 +9156,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C94" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -9168,10 +9168,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C95" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -9180,10 +9180,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C96" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -9192,10 +9192,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C97" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -9204,10 +9204,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C98" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -9216,10 +9216,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C99" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,10 +9228,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C100" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -9256,13 +9256,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9270,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -9283,10 +9283,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -9296,10 +9296,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -9309,10 +9309,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9322,10 +9322,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -9335,10 +9335,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -9348,10 +9348,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -9361,10 +9361,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -9374,10 +9374,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -9387,10 +9387,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>845</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>851</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -9400,10 +9400,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>846</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -9428,22 +9428,22 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -9464,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -9476,10 +9476,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9488,10 +9488,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -9500,75 +9500,75 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -9588,13 +9588,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9602,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9613,18 +9613,18 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -9648,13 +9648,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9662,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9673,10 +9673,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9684,10 +9684,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -9706,10 +9706,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C6" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -9717,10 +9717,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9742,10 +9742,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9753,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9764,10 +9764,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9775,10 +9775,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9786,10 +9786,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9797,10 +9797,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9821,13 +9821,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9835,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9846,10 +9846,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9857,10 +9857,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9868,10 +9868,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -9879,13 +9879,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,46 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD19592-BADD-2144-BE77-C444EA517A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAA364-7237-D44E-923F-0C378335F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11240" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
-    <sheet name="Rapport" sheetId="30" r:id="rId2"/>
-    <sheet name="Monster" sheetId="25" r:id="rId3"/>
-    <sheet name="ABR" sheetId="29" r:id="rId4"/>
-    <sheet name="Tekening" sheetId="28" r:id="rId5"/>
-    <sheet name="Monster_Schelp" sheetId="27" r:id="rId6"/>
-    <sheet name="Monster_Botanie" sheetId="26" r:id="rId7"/>
-    <sheet name="Put" sheetId="2" r:id="rId8"/>
-    <sheet name="Vlak" sheetId="3" r:id="rId9"/>
-    <sheet name="Spoor" sheetId="4" r:id="rId10"/>
-    <sheet name="Vulling" sheetId="5" r:id="rId11"/>
-    <sheet name="Vondst" sheetId="6" r:id="rId12"/>
-    <sheet name="Stelling" sheetId="7" r:id="rId13"/>
-    <sheet name="Artefact" sheetId="8" r:id="rId14"/>
-    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId15"/>
-    <sheet name="Metaal" sheetId="11" r:id="rId16"/>
-    <sheet name="Munt" sheetId="12" r:id="rId17"/>
-    <sheet name="Schelp" sheetId="13" r:id="rId18"/>
-    <sheet name="Steen" sheetId="14" r:id="rId19"/>
-    <sheet name="Textiel" sheetId="15" r:id="rId20"/>
-    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId21"/>
-    <sheet name="Aardewerk" sheetId="17" r:id="rId22"/>
-    <sheet name="Glas" sheetId="18" r:id="rId23"/>
-    <sheet name="Hout" sheetId="19" r:id="rId24"/>
-    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId25"/>
-    <sheet name="Leer" sheetId="22" r:id="rId26"/>
-    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId27"/>
-    <sheet name="Fotokoppel" sheetId="24" r:id="rId28"/>
+    <sheet name="DT_Soort_Plant" sheetId="31" r:id="rId2"/>
+    <sheet name="DT_Soort_Schelp" sheetId="32" r:id="rId3"/>
+    <sheet name="DT_Soort_Deel" sheetId="33" r:id="rId4"/>
+    <sheet name="DT_Soort_Staat" sheetId="34" r:id="rId5"/>
+    <sheet name="Rapport" sheetId="30" r:id="rId6"/>
+    <sheet name="Monster" sheetId="25" r:id="rId7"/>
+    <sheet name="ABR" sheetId="29" r:id="rId8"/>
+    <sheet name="Tekening" sheetId="28" r:id="rId9"/>
+    <sheet name="Monster_Schelp" sheetId="27" r:id="rId10"/>
+    <sheet name="Monster_Botanie" sheetId="26" r:id="rId11"/>
+    <sheet name="Put" sheetId="2" r:id="rId12"/>
+    <sheet name="Vlak" sheetId="3" r:id="rId13"/>
+    <sheet name="Spoor" sheetId="4" r:id="rId14"/>
+    <sheet name="Vulling" sheetId="5" r:id="rId15"/>
+    <sheet name="Vondst" sheetId="6" r:id="rId16"/>
+    <sheet name="Stelling" sheetId="7" r:id="rId17"/>
+    <sheet name="Artefact" sheetId="8" r:id="rId18"/>
+    <sheet name="Menselijk_Bot" sheetId="10" r:id="rId19"/>
+    <sheet name="Metaal" sheetId="11" r:id="rId20"/>
+    <sheet name="Munt" sheetId="12" r:id="rId21"/>
+    <sheet name="Schelp" sheetId="13" r:id="rId22"/>
+    <sheet name="Steen" sheetId="14" r:id="rId23"/>
+    <sheet name="Textiel" sheetId="15" r:id="rId24"/>
+    <sheet name="Dierlijk_Bot" sheetId="16" r:id="rId25"/>
+    <sheet name="Aardewerk" sheetId="17" r:id="rId26"/>
+    <sheet name="Glas" sheetId="18" r:id="rId27"/>
+    <sheet name="Hout" sheetId="19" r:id="rId28"/>
+    <sheet name="Bouwaardewerk" sheetId="21" r:id="rId29"/>
+    <sheet name="Leer" sheetId="22" r:id="rId30"/>
+    <sheet name="Fotobeschrijving" sheetId="23" r:id="rId31"/>
+    <sheet name="Fotokoppel" sheetId="24" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="924">
   <si>
     <t>Object</t>
   </si>
@@ -1982,9 +1986,6 @@
     <t>["Monster_gegevens", "Monster_waardering"]</t>
   </si>
   <si>
-    <t>soort</t>
-  </si>
-  <si>
     <t>['SOORT']</t>
   </si>
   <si>
@@ -2012,15 +2013,9 @@
     <t>Monster_Schelp</t>
   </si>
   <si>
-    <t>["Monster_schelp.*"]</t>
-  </si>
-  <si>
     <t>Monster_Botanie</t>
   </si>
   <si>
-    <t>["Monster_botanie.*"]</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -2799,6 +2794,93 @@
   </si>
   <si>
     <t>['TOTAANTAL', 'AANTAL', '4b1', 'aant']</t>
+  </si>
+  <si>
+    <t>soort_botanie</t>
+  </si>
+  <si>
+    <t>soort_schelp</t>
+  </si>
+  <si>
+    <t>DT_Soort_Deel</t>
+  </si>
+  <si>
+    <t>DT_Soort_Plant</t>
+  </si>
+  <si>
+    <t>DT_Soort_Schelp</t>
+  </si>
+  <si>
+    <t>DT_Soort_Staat</t>
+  </si>
+  <si>
+    <t>["SPEC"]</t>
+  </si>
+  <si>
+    <t>oude_naam</t>
+  </si>
+  <si>
+    <t>wetenschappelijke_naam</t>
+  </si>
+  <si>
+    <t>nederlandse_naam</t>
+  </si>
+  <si>
+    <t>["CODENAAM"]</t>
+  </si>
+  <si>
+    <t>["NAAM NEDERLANDS"]</t>
+  </si>
+  <si>
+    <t>milieu</t>
+  </si>
+  <si>
+    <t>["MILIEU"]</t>
+  </si>
+  <si>
+    <t>["DEEL"]</t>
+  </si>
+  <si>
+    <t>["OMSCHRIJVING"]</t>
+  </si>
+  <si>
+    <t>uitleg</t>
+  </si>
+  <si>
+    <t>["UITLEG"]</t>
+  </si>
+  <si>
+    <t>["STAAT"]</t>
+  </si>
+  <si>
+    <t>["NAAM LATIJN"]</t>
+  </si>
+  <si>
+    <t>["WETENSCHAPPELIJKE NAAM"]</t>
+  </si>
+  <si>
+    <t>["OUDE NAAM"]</t>
+  </si>
+  <si>
+    <t>["NEDERLANDSE NAAM"]</t>
+  </si>
+  <si>
+    <t>["^Monster_schelp.*"]</t>
+  </si>
+  <si>
+    <t>["^Monster_botanie.*"]</t>
+  </si>
+  <si>
+    <t>["^R_DEEL"]</t>
+  </si>
+  <si>
+    <t>["^R_PLANT"]</t>
+  </si>
+  <si>
+    <t>["^R_SCHELP"]</t>
+  </si>
+  <si>
+    <t>["^R_STAAT"]</t>
   </si>
 </sst>
 </file>
@@ -3301,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3334,7 +3416,7 @@
         <v>577</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3378,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3483,10 +3565,10 @@
         <v>19</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H14" t="s">
         <v>578</v>
@@ -3506,10 +3588,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H15" t="s">
         <v>579</v>
@@ -3529,7 +3611,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H16" t="s">
         <v>580</v>
@@ -3549,10 +3631,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H17" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3569,7 +3651,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H18" t="s">
         <v>581</v>
@@ -3589,7 +3671,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H19" t="s">
         <v>582</v>
@@ -3609,7 +3691,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H20" t="s">
         <v>582</v>
@@ -3629,10 +3711,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H21" t="s">
         <v>583</v>
@@ -3652,10 +3734,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H22" t="s">
         <v>585</v>
@@ -3675,10 +3757,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H23" t="s">
         <v>590</v>
@@ -3698,10 +3780,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H24" t="s">
         <v>588</v>
@@ -3721,10 +3803,10 @@
         <v>19</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H25" t="s">
         <v>591</v>
@@ -3738,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -3761,10 +3843,10 @@
         <v>19</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H27" t="s">
         <v>593</v>
@@ -3786,10 +3868,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C29" t="s">
-        <v>635</v>
+        <v>918</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3797,10 +3879,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C30" t="s">
-        <v>637</v>
+        <v>919</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3808,10 +3890,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C31" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3819,10 +3901,42 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C32" t="s">
-        <v>890</v>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>897</v>
+      </c>
+      <c r="C33" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>898</v>
+      </c>
+      <c r="C34" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="C35" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C36" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -3855,6 +3969,323 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386E297-D519-564E-ABC1-4EF5CC592387}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4184,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4507,7 +4938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4695,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4738,11 +5169,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4786,7 +5217,7 @@
         <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,7 +5330,7 @@
         <v>604</v>
       </c>
       <c r="C13" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4910,7 +5341,7 @@
         <v>605</v>
       </c>
       <c r="C14" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5136,7 +5567,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C35" t="s">
         <v>227</v>
@@ -5161,7 +5592,7 @@
         <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5225,7 +5656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5432,7 +5863,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74421891-09E4-9B46-A9EF-46191FFB77E0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -5551,7 +6104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -5857,7 +6410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -5888,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -6022,204 +6575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C687B-D5EB-1F49-BC93-522FCCA29282}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A15" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>867</v>
-      </c>
-      <c r="C4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>868</v>
-      </c>
-      <c r="C5" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>889</v>
-      </c>
-      <c r="C6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>871</v>
-      </c>
-      <c r="C7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>873</v>
-      </c>
-      <c r="C8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>874</v>
-      </c>
-      <c r="C9" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C10" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>878</v>
-      </c>
-      <c r="C11" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>880</v>
-      </c>
-      <c r="C12" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>882</v>
-      </c>
-      <c r="C13" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>884</v>
-      </c>
-      <c r="C14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>886</v>
-      </c>
-      <c r="C15" t="s">
-        <v>887</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:D1"/>
   <sheetViews>
@@ -6243,7 +6599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -6588,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -6915,7 +7271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7130,7 +7486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -7330,7 +7686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -7629,7 +7985,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10FD95C-4E22-A546-AFCF-A74850D837A1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7846,7 +8318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0267F-3961-F64D-889C-497261B556CC}">
   <dimension ref="B1:D12"/>
   <sheetViews>
@@ -7964,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0D174-6E0A-4C40-A400-825ECAC5A597}">
   <dimension ref="B1:D4"/>
   <sheetViews>
@@ -8019,12 +8491,208 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
-  <dimension ref="A1:D100"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE50202-C0E6-4F47-B457-2B64EBBADF5B}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC76FDFC-854B-EA4C-AF60-154B4D29E7EA}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C687B-D5EB-1F49-BC93-522FCCA29282}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8049,10 +8717,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>860</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,22 +8729,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>864</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8085,10 +8753,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>865</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,10 +8765,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>886</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8109,10 +8777,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>868</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8121,10 +8789,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>613</v>
+        <v>870</v>
       </c>
       <c r="C8" t="s">
-        <v>614</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,10 +8801,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>871</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,10 +8813,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>873</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8157,10 +8825,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>875</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8169,10 +8837,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>877</v>
       </c>
       <c r="C12" t="s">
-        <v>618</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,10 +8849,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>642</v>
+        <v>879</v>
       </c>
       <c r="C13" t="s">
-        <v>641</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,10 +8861,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>643</v>
+        <v>881</v>
       </c>
       <c r="C14" t="s">
-        <v>644</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8205,1033 +8873,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>883</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>622</v>
-      </c>
-      <c r="C17" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" t="s">
-        <v>639</v>
-      </c>
-      <c r="D18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>645</v>
-      </c>
-      <c r="C19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>646</v>
-      </c>
-      <c r="C20" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>647</v>
-      </c>
-      <c r="C21" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>648</v>
-      </c>
-      <c r="C22" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>649</v>
-      </c>
-      <c r="C23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>650</v>
-      </c>
-      <c r="C24" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>651</v>
-      </c>
-      <c r="C25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>652</v>
-      </c>
-      <c r="C26" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>661</v>
-      </c>
-      <c r="C27" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>785</v>
-      </c>
-      <c r="C28" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>786</v>
-      </c>
-      <c r="C29" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>787</v>
-      </c>
-      <c r="C30" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>788</v>
-      </c>
-      <c r="C31" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>667</v>
-      </c>
-      <c r="C32" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>669</v>
-      </c>
-      <c r="C33" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>671</v>
-      </c>
-      <c r="C34" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>673</v>
-      </c>
-      <c r="C35" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>675</v>
-      </c>
-      <c r="C36" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>677</v>
-      </c>
-      <c r="C37" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C38" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>681</v>
-      </c>
-      <c r="C39" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>683</v>
-      </c>
-      <c r="C40" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>685</v>
-      </c>
-      <c r="C41" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>687</v>
-      </c>
-      <c r="C42" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>689</v>
-      </c>
-      <c r="C43" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>691</v>
-      </c>
-      <c r="C44" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>789</v>
-      </c>
-      <c r="C45" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>790</v>
-      </c>
-      <c r="C46" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>803</v>
-      </c>
-      <c r="C47" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>696</v>
-      </c>
-      <c r="C48" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>804</v>
-      </c>
-      <c r="C49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>699</v>
-      </c>
-      <c r="C50" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>701</v>
-      </c>
-      <c r="C51" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>791</v>
-      </c>
-      <c r="C52" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>704</v>
-      </c>
-      <c r="C53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>706</v>
-      </c>
-      <c r="C54" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>708</v>
-      </c>
-      <c r="C55" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>805</v>
-      </c>
-      <c r="C56" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>711</v>
-      </c>
-      <c r="C57" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>713</v>
-      </c>
-      <c r="C58" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>715</v>
-      </c>
-      <c r="C59" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>717</v>
-      </c>
-      <c r="C60" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>719</v>
-      </c>
-      <c r="C61" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>721</v>
-      </c>
-      <c r="C62" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>723</v>
-      </c>
-      <c r="C63" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>725</v>
-      </c>
-      <c r="C64" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>727</v>
-      </c>
-      <c r="C65" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>792</v>
-      </c>
-      <c r="C66" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>793</v>
-      </c>
-      <c r="C67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <f t="shared" ref="A68:A100" si="1">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>794</v>
-      </c>
-      <c r="C68" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>795</v>
-      </c>
-      <c r="C69" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>796</v>
-      </c>
-      <c r="C70" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>797</v>
-      </c>
-      <c r="C71" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>798</v>
-      </c>
-      <c r="C72" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>799</v>
-      </c>
-      <c r="C73" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>737</v>
-      </c>
-      <c r="C74" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>739</v>
-      </c>
-      <c r="C75" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>741</v>
-      </c>
-      <c r="C76" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>743</v>
-      </c>
-      <c r="C77" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>745</v>
-      </c>
-      <c r="C78" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>747</v>
-      </c>
-      <c r="C79" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>749</v>
-      </c>
-      <c r="C80" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>751</v>
-      </c>
-      <c r="C81" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>753</v>
-      </c>
-      <c r="C82" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>755</v>
-      </c>
-      <c r="C83" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>806</v>
-      </c>
-      <c r="C84" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>758</v>
-      </c>
-      <c r="C85" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>760</v>
-      </c>
-      <c r="C86" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>762</v>
-      </c>
-      <c r="C87" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>764</v>
-      </c>
-      <c r="C88" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>800</v>
-      </c>
-      <c r="C89" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>801</v>
-      </c>
-      <c r="C90" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>807</v>
-      </c>
-      <c r="C91" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>769</v>
-      </c>
-      <c r="C92" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>808</v>
-      </c>
-      <c r="C93" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>772</v>
-      </c>
-      <c r="C94" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>774</v>
-      </c>
-      <c r="C95" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>776</v>
-      </c>
-      <c r="C96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>778</v>
-      </c>
-      <c r="C97" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>780</v>
-      </c>
-      <c r="C98" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>802</v>
-      </c>
-      <c r="C99" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>783</v>
-      </c>
-      <c r="C100" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -9239,7 +8884,1227 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BE5099-14EB-8E48-A984-D6BE092CC4FE}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>619</v>
+      </c>
+      <c r="C15" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>646</v>
+      </c>
+      <c r="C23" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>658</v>
+      </c>
+      <c r="C27" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>782</v>
+      </c>
+      <c r="C28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>783</v>
+      </c>
+      <c r="C29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>784</v>
+      </c>
+      <c r="C30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>666</v>
+      </c>
+      <c r="C33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>668</v>
+      </c>
+      <c r="C34" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>670</v>
+      </c>
+      <c r="C35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>672</v>
+      </c>
+      <c r="C36" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>674</v>
+      </c>
+      <c r="C37" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>676</v>
+      </c>
+      <c r="C38" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>678</v>
+      </c>
+      <c r="C39" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>680</v>
+      </c>
+      <c r="C40" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>684</v>
+      </c>
+      <c r="C42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>686</v>
+      </c>
+      <c r="C43" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>688</v>
+      </c>
+      <c r="C44" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>786</v>
+      </c>
+      <c r="C45" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>787</v>
+      </c>
+      <c r="C46" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>800</v>
+      </c>
+      <c r="C47" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>693</v>
+      </c>
+      <c r="C48" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>801</v>
+      </c>
+      <c r="C49" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>696</v>
+      </c>
+      <c r="C50" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>698</v>
+      </c>
+      <c r="C51" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>788</v>
+      </c>
+      <c r="C52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>701</v>
+      </c>
+      <c r="C53" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>703</v>
+      </c>
+      <c r="C54" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>705</v>
+      </c>
+      <c r="C55" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>802</v>
+      </c>
+      <c r="C56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>710</v>
+      </c>
+      <c r="C58" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>712</v>
+      </c>
+      <c r="C59" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>714</v>
+      </c>
+      <c r="C60" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>716</v>
+      </c>
+      <c r="C61" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>718</v>
+      </c>
+      <c r="C62" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>720</v>
+      </c>
+      <c r="C63" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>722</v>
+      </c>
+      <c r="C64" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>724</v>
+      </c>
+      <c r="C65" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>789</v>
+      </c>
+      <c r="C66" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>790</v>
+      </c>
+      <c r="C67" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A100" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>791</v>
+      </c>
+      <c r="C68" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>792</v>
+      </c>
+      <c r="C69" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>793</v>
+      </c>
+      <c r="C70" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>794</v>
+      </c>
+      <c r="C71" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>795</v>
+      </c>
+      <c r="C72" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>796</v>
+      </c>
+      <c r="C73" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>734</v>
+      </c>
+      <c r="C74" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>736</v>
+      </c>
+      <c r="C75" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>738</v>
+      </c>
+      <c r="C76" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>740</v>
+      </c>
+      <c r="C77" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>742</v>
+      </c>
+      <c r="C78" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>744</v>
+      </c>
+      <c r="C79" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>746</v>
+      </c>
+      <c r="C80" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>748</v>
+      </c>
+      <c r="C81" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>750</v>
+      </c>
+      <c r="C82" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>752</v>
+      </c>
+      <c r="C83" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>803</v>
+      </c>
+      <c r="C84" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>755</v>
+      </c>
+      <c r="C85" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>757</v>
+      </c>
+      <c r="C86" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>759</v>
+      </c>
+      <c r="C87" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>761</v>
+      </c>
+      <c r="C88" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>797</v>
+      </c>
+      <c r="C89" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>798</v>
+      </c>
+      <c r="C90" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>804</v>
+      </c>
+      <c r="C91" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>766</v>
+      </c>
+      <c r="C92" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>805</v>
+      </c>
+      <c r="C93" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>769</v>
+      </c>
+      <c r="C94" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>771</v>
+      </c>
+      <c r="C95" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>773</v>
+      </c>
+      <c r="C96" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>775</v>
+      </c>
+      <c r="C97" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>777</v>
+      </c>
+      <c r="C98" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>799</v>
+      </c>
+      <c r="C99" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>780</v>
+      </c>
+      <c r="C100" t="s">
+        <v>781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031EEAA-8CBE-224C-882A-D80708C8602F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -9270,10 +10135,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -9283,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -9296,10 +10161,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -9309,10 +10174,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9322,10 +10187,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -9335,10 +10200,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -9348,10 +10213,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -9361,10 +10226,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -9377,7 +10242,7 @@
         <v>213</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -9387,10 +10252,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -9400,10 +10265,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -9412,7 +10277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF775CC9-C6C8-ED4F-B48D-81639A81E38C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -9440,10 +10305,10 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -9500,10 +10365,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -9512,23 +10377,23 @@
         <v>168</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -9536,15 +10401,15 @@
         <v>561</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -9552,343 +10417,26 @@
         <v>103</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079731B-8649-5A4E-B897-2AEB2B334294}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386E297-D519-564E-ABC1-4EF5CC592387}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>629</v>
-      </c>
-      <c r="C5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScale="270" zoomScaleNormal="270" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAA364-7237-D44E-923F-0C378335F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66543A-E9CC-2F4F-819E-5D5726A5D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11240" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11240" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,13 @@
     <sheet name="Fotobeschrijving" sheetId="23" r:id="rId31"/>
     <sheet name="Fotokoppel" sheetId="24" r:id="rId32"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Artefact!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">Dierlijk_Bot!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Spoor!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Vondst!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Vulling!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -96,7 +103,7 @@
     <author>tc={EAE429C4-0AE8-B645-9B37-57AAB4AB828A}</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{EAE429C4-0AE8-B645-9B37-57AAB4AB828A}">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{EAE429C4-0AE8-B645-9B37-57AAB4AB828A}">
       <text>
         <t>[Opmerkingenthread]
 U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="930">
   <si>
     <t>Object</t>
   </si>
@@ -126,9 +133,6 @@
     <t>Ignore</t>
   </si>
   <si>
-    <t>[".*backup.*", ".*kopie.*"]</t>
-  </si>
-  <si>
     <t>Tekening</t>
   </si>
   <si>
@@ -138,9 +142,6 @@
     <t>Vondst</t>
   </si>
   <si>
-    <t>["^VONDSTENLIJST", "^VONDST$"]</t>
-  </si>
-  <si>
     <t>Spoor</t>
   </si>
   <si>
@@ -159,9 +160,6 @@
     <t>Foto</t>
   </si>
   <si>
-    <t>["FOTO.*"]</t>
-  </si>
-  <si>
     <t>Put</t>
   </si>
   <si>
@@ -171,15 +169,9 @@
     <t>Artefact</t>
   </si>
   <si>
-    <t>["ARTEFACT.*"]</t>
-  </si>
-  <si>
     <t>Hout</t>
   </si>
   <si>
-    <t>["HOUT", "ARTF_OPH"]</t>
-  </si>
-  <si>
     <t>Leer</t>
   </si>
   <si>
@@ -210,15 +202,9 @@
     <t>Aardewerk</t>
   </si>
   <si>
-    <t>["Skelet.*", "ARTF_OMX"]</t>
-  </si>
-  <si>
     <t>Munt</t>
   </si>
   <si>
-    <t>["MUNT.*"]</t>
-  </si>
-  <si>
     <t>Vlak</t>
   </si>
   <si>
@@ -312,18 +298,12 @@
     <t>aard</t>
   </si>
   <si>
-    <t>["AARD", "INTERPRET", "INTERPRETATIE"]</t>
-  </si>
-  <si>
     <t>Relatie met SYS_LOOKUP sinterpret. We denken dat het ABR is</t>
   </si>
   <si>
     <t>["BESCHRIJVING"]</t>
   </si>
   <si>
-    <t>["DAT", "DATERING"]</t>
-  </si>
-  <si>
     <t>vorm</t>
   </si>
   <si>
@@ -333,9 +313,6 @@
     <t>diepte</t>
   </si>
   <si>
-    <t>["DIEPTE"]</t>
-  </si>
-  <si>
     <t>afgewerkt</t>
   </si>
   <si>
@@ -417,9 +394,6 @@
     <t>onderkant_NAP</t>
   </si>
   <si>
-    <t>["OK_NAP"]</t>
-  </si>
-  <si>
     <t>profiel</t>
   </si>
   <si>
@@ -435,9 +409,6 @@
     <t>steenformaat</t>
   </si>
   <si>
-    <t>["STEENFORMAAT"]</t>
-  </si>
-  <si>
     <t>Grootte baksteen, hoe groter hoe ouder</t>
   </si>
   <si>
@@ -660,9 +631,6 @@
     <t>Opmerkingen</t>
   </si>
   <si>
-    <t>['ABR']</t>
-  </si>
-  <si>
     <t>Zelf toevoeging</t>
   </si>
   <si>
@@ -675,9 +643,6 @@
     <t>artefactnr</t>
   </si>
   <si>
-    <t>['4bvoorwerp beschrijving', '4b', 'BESCHR', 'VOORZIJDE BEELD', 'BYZONDER1', 'BYZONDER2', 'BESCHRYF']</t>
-  </si>
-  <si>
     <t>catalogus</t>
   </si>
   <si>
@@ -708,9 +673,6 @@
     <t>fotonr</t>
   </si>
   <si>
-    <t>['10d', 'FOTO', 'FOTONO', '10c']</t>
-  </si>
-  <si>
     <t>functievoorwerp</t>
   </si>
   <si>
@@ -753,15 +715,9 @@
     <t>opmerkingen</t>
   </si>
   <si>
-    <t>['OPMERKING', 'Opmerkingen', 'OPMERKINGEN']</t>
-  </si>
-  <si>
     <t>origine</t>
   </si>
   <si>
-    <t>['PROD_CNM', 'HERKOMST', 'PROD_CNTM', 'PRODCNM', '8']</t>
-  </si>
-  <si>
     <t>plek</t>
   </si>
   <si>
@@ -792,9 +748,6 @@
     <t>subnr</t>
   </si>
   <si>
-    <t>['TEKNO', '10b']</t>
-  </si>
-  <si>
     <t>typenaam</t>
   </si>
   <si>
@@ -909,9 +862,6 @@
     <t>bewerking</t>
   </si>
   <si>
-    <t>['5b', 'BEWERKING']</t>
-  </si>
-  <si>
     <t>['COMPLEET', '6d']</t>
   </si>
   <si>
@@ -1158,9 +1108,6 @@
     <t>bewerkingssporen</t>
   </si>
   <si>
-    <t>['BEWERK', 'BEWERKING']</t>
-  </si>
-  <si>
     <t>brandsporen</t>
   </si>
   <si>
@@ -1170,9 +1117,6 @@
     <t>diersoort</t>
   </si>
   <si>
-    <t>['SPECIES']</t>
-  </si>
-  <si>
     <t>geconserveerd</t>
   </si>
   <si>
@@ -1194,9 +1138,6 @@
     <t>knaagsporen</t>
   </si>
   <si>
-    <t>['KNAAG']</t>
-  </si>
-  <si>
     <t>leeftijd</t>
   </si>
   <si>
@@ -1206,27 +1147,15 @@
     <t>maat1</t>
   </si>
   <si>
-    <t>['MAAT1']</t>
-  </si>
-  <si>
     <t>maat2</t>
   </si>
   <si>
-    <t>['MAAT2']</t>
-  </si>
-  <si>
     <t>maat3</t>
   </si>
   <si>
-    <t>['MAAT3']</t>
-  </si>
-  <si>
     <t>maat4</t>
   </si>
   <si>
-    <t>['MAAT4']</t>
-  </si>
-  <si>
     <t>oriëntatie</t>
   </si>
   <si>
@@ -1236,9 +1165,6 @@
     <t>pathologie</t>
   </si>
   <si>
-    <t>['PATHOLOGIE']</t>
-  </si>
-  <si>
     <t>['PERCENTAGE', 'PERC']</t>
   </si>
   <si>
@@ -1287,9 +1213,6 @@
     <t>vergroeiing</t>
   </si>
   <si>
-    <t>['VERGROEI']</t>
-  </si>
-  <si>
     <t>['aantal']</t>
   </si>
   <si>
@@ -1368,9 +1291,6 @@
     <t>['6b', '6boor/steel']</t>
   </si>
   <si>
-    <t>['4d', 'PAST AAN', 'PAST_AAN']</t>
-  </si>
-  <si>
     <t>productiewijze</t>
   </si>
   <si>
@@ -1413,9 +1333,6 @@
     <t>glassoort</t>
   </si>
   <si>
-    <t>['GLSSOORT', 'glassoort', '5a']</t>
-  </si>
-  <si>
     <t>grootste</t>
   </si>
   <si>
@@ -1497,15 +1414,9 @@
     <t>gebruikssporen</t>
   </si>
   <si>
-    <t>['5b1', 'GEBRUIK']</t>
-  </si>
-  <si>
     <t>houtsoort</t>
   </si>
   <si>
-    <t>['HOUT_CODE', '5a']</t>
-  </si>
-  <si>
     <t>houtsoortcd</t>
   </si>
   <si>
@@ -1515,18 +1426,12 @@
     <t>jaarring_bast_spint</t>
   </si>
   <si>
-    <t>['JSB']</t>
-  </si>
-  <si>
     <t>['4a', 'MATEN']</t>
   </si>
   <si>
     <t>puntlengte</t>
   </si>
   <si>
-    <t>['PUNTL']</t>
-  </si>
-  <si>
     <t>puntvorm</t>
   </si>
   <si>
@@ -1773,9 +1678,6 @@
     <t>Uniek nummer exclusief voor RAAP-database In RAAP heb je zowel ARTEFACT en ook SUBNO. De Foto's worden gematcht op subnr. Uniek nummer in RAAP: ARTEFACT en SPLIT_ID</t>
   </si>
   <si>
-    <t>["ARTF_KER", "KERAMIEK$"]</t>
-  </si>
-  <si>
     <t>["VONDST", "VONDSTNO", "Vondst I"]</t>
   </si>
   <si>
@@ -1869,9 +1771,6 @@
     <t>OMB</t>
   </si>
   <si>
-    <t>[".*AARDEWERK.*", "AW1.*", "AW2.*", "AW3.*", "ARTF_AW", "ARTF_RAW"]</t>
-  </si>
-  <si>
     <t>Dierlijk_Bot</t>
   </si>
   <si>
@@ -1893,18 +1792,12 @@
     <t>OTE</t>
   </si>
   <si>
-    <t>["ARTF_BOT", "^BOT$", "BEEN", "VIS", "ARTF_ODI", "ARTF_ODH"]</t>
-  </si>
-  <si>
     <t>["VONDSTOMSTH", "VERZMWIJZE"]</t>
   </si>
   <si>
     <t>['COMPLEET', '6d', 'COMPL', 'FRAGM']</t>
   </si>
   <si>
-    <t>['13', 'EXPO']</t>
-  </si>
-  <si>
     <t>deselectie</t>
   </si>
   <si>
@@ -2778,12 +2671,6 @@
     <t>https://data.cultureelerfgoed.nl/term/id/abr/9084ba17-eefe-44db-8eab-d7b746668d9b</t>
   </si>
   <si>
-    <t>['DATUM EIND', '3b', 'DAT_EIND', 'EINDDAT', 'DATERING1']</t>
-  </si>
-  <si>
-    <t>['DAT_BEGIN', 'DATUM BEGIN', '3a', 'DAT_BEG', 'BEGINDAT', 'DATERING2']</t>
-  </si>
-  <si>
     <t>['VOORWERP', '7avoorwerp', '7a', 'TYPE', 'TYPE_CODE', 'SOORT_VW', '2', 'GROEP']</t>
   </si>
   <si>
@@ -2793,9 +2680,6 @@
     <t>["ARTF_ODX", "ARTF_OPX", "ARTF_OXX", "DELFHOUT"]</t>
   </si>
   <si>
-    <t>['TOTAANTAL', 'AANTAL', '4b1', 'aant']</t>
-  </si>
-  <si>
     <t>soort_botanie</t>
   </si>
   <si>
@@ -2881,6 +2765,147 @@
   </si>
   <si>
     <t>["^R_STAAT"]</t>
+  </si>
+  <si>
+    <t>["ARTF_BOT", "^BOT$", "BEEN", "VIS", "ARTF_ODI", "ARTF_ODH", "BOT_1"]</t>
+  </si>
+  <si>
+    <t>["Skelet.*", "ARTF_OMX", "MENSELIJK"]</t>
+  </si>
+  <si>
+    <t>["HOUT", "ARTF_OPH", "Palen", "PAAL"]</t>
+  </si>
+  <si>
+    <t>[".*AARDEWERK.*", "AW1.*", "AW2.*", "AW3.*", "ARTF_AW", "ARTF_RAW", "ROM_AW"]</t>
+  </si>
+  <si>
+    <t>[".*backup.*", ".*kopie.*", ".*tijdelijk.*", "^Soorten", "^Ref_"]</t>
+  </si>
+  <si>
+    <t>["^VONDSTENLIJST", "^VONDST$", "^VELDVONDST", "^VONDSTEN"]</t>
+  </si>
+  <si>
+    <t>["ARTEFACT.*", "Totaaltabel dateringen", "Determinaties"]</t>
+  </si>
+  <si>
+    <t>["MUNT.*", "MUNTEN EN PENNINGEN"]</t>
+  </si>
+  <si>
+    <t>["ARTF_KER", "KERAMIEK$", "ARTF_KBM"]</t>
+  </si>
+  <si>
+    <t>['4d', 'PAST AAN', 'PAST_AAN', 'PASTAAN']</t>
+  </si>
+  <si>
+    <t>['PROD_CNM', 'HERKOMST', 'PROD_CNTM', 'PRODCNM', '8', 'PRODUC']</t>
+  </si>
+  <si>
+    <t>['13', 'EXPO', 'EXPOSABEL']</t>
+  </si>
+  <si>
+    <t>['ABR', 'MATALG']</t>
+  </si>
+  <si>
+    <t>['BEWERK', 'BEWERKING', 'BEWERKSPOREN']</t>
+  </si>
+  <si>
+    <t>['KNAAG', 'KNAAGSPOREN']</t>
+  </si>
+  <si>
+    <t>['BRAND', 'BRANDSPOREN']</t>
+  </si>
+  <si>
+    <t>['VERGROEI', 'VERGROEIING']</t>
+  </si>
+  <si>
+    <t>['SPECIES', 'SPECIE']</t>
+  </si>
+  <si>
+    <t>['MAAT1', 'MAAT 1']</t>
+  </si>
+  <si>
+    <t>['MAAT2', 'MAAT 2']</t>
+  </si>
+  <si>
+    <t>['MAAT3', 'MAAT 3']</t>
+  </si>
+  <si>
+    <t>['MAAT4', 'MAAT 4']</t>
+  </si>
+  <si>
+    <t>['TOTAANTAL', 'AANTAL', '4b1', 'aant', 'AANTAL FRAGMENTEN', 'AANTAL ELEMENTEN', 'WERKELIJKE AANTAL']</t>
+  </si>
+  <si>
+    <t>['OPMERKING', 'Opmerkingen', 'OPMERKINGEN', 'OPMERK', 'opmerkingen']</t>
+  </si>
+  <si>
+    <t>['PATHOLOGIE', 'pathologie']</t>
+  </si>
+  <si>
+    <t>['DAT_BEGIN', 'DATUM BEGIN', '3a', 'DAT_BEG', 'BEGINDAT', 'DATERING2', 'BEG_DAT']</t>
+  </si>
+  <si>
+    <t>['DATUM EIND', '3b', 'DAT_EIND', 'EINDDAT', 'DATERING1', 'Datering eind', 'EIN_DAT', 'EIND_DAT']</t>
+  </si>
+  <si>
+    <t>['4bvoorwerp beschrijving', '4b', 'BESCHR', 'VOORZIJDE BEELD', 'BYZONDER1', 'BYZONDER2', 'BESCHRYF', 'Beschrijving']</t>
+  </si>
+  <si>
+    <t>['GLSSOORT', 'glassoort', '5a', 'GLASSOORT']</t>
+  </si>
+  <si>
+    <t>['5b1', 'GEBRUIK', 'GEBRUIKSS']</t>
+  </si>
+  <si>
+    <t>['PUNTL', 'PUNTLENGTE']</t>
+  </si>
+  <si>
+    <t>['JSB', 'J_S_B']</t>
+  </si>
+  <si>
+    <t>['HOUT_CODE', '5a', 'HOUTSOORT', 'WETENSCHAPPELIJKE NAAM', 'NEDERLANDSE NAAM']</t>
+  </si>
+  <si>
+    <t>['TEKNO', '10b', 'TEK', 'TEK_NO']</t>
+  </si>
+  <si>
+    <t>['5b', 'BEWERKING', 'BEWERK']</t>
+  </si>
+  <si>
+    <t>['10d', 'FOTO', 'FOTONO', '10c', 'DIGI_FO_NO', 'DIG_FO', 'FOTONUMMERS : vz/kz/detail', 'FOTONUMMER(S)']</t>
+  </si>
+  <si>
+    <t>["DAT", "DATERING", "PER", "FASE"]</t>
+  </si>
+  <si>
+    <t>["OK_NAP", "NAP_ONDER"]</t>
+  </si>
+  <si>
+    <t>["DIEPTE", "SPOORDIEPTE"]</t>
+  </si>
+  <si>
+    <t>["AARD", "INTERPRET", "INTERPRETATIE", "SPOORAARD"]</t>
+  </si>
+  <si>
+    <t>["STEENFORMAAT", "STEENFOR"]</t>
+  </si>
+  <si>
+    <t>["BESCHRYF", "OPMERKING"]</t>
+  </si>
+  <si>
+    <t>vondstdatering_vanaf</t>
+  </si>
+  <si>
+    <t>["BEGIN_DAT", "BEGIN_PER"]</t>
+  </si>
+  <si>
+    <t>vondstdatering_tot</t>
+  </si>
+  <si>
+    <t>["EIND_DAT", "EIND_PER"]</t>
+  </si>
+  <si>
+    <t>[".*FOTO.*", "DIA"]</t>
   </si>
 </sst>
 </file>
@@ -3375,7 +3400,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B39" dT="2022-05-04T13:22:53.89" personId="{2BE8FBFB-2E17-4B4E-BEE9-14B2389B829C}" id="{EAE429C4-0AE8-B645-9B37-57AAB4AB828A}">
+  <threadedComment ref="B41" dT="2022-05-04T13:22:53.89" personId="{2BE8FBFB-2E17-4B4E-BEE9-14B2389B829C}" id="{EAE429C4-0AE8-B645-9B37-57AAB4AB828A}">
     <text>Verplaatsen naar Vondst</text>
   </threadedComment>
 </ThreadedComments>
@@ -3385,14 +3410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="76.6640625" customWidth="1"/>
@@ -3413,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>846</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3427,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3435,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3446,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3457,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3468,10 +3493,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3479,10 +3504,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3490,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3501,10 +3526,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3512,10 +3537,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="C10" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3523,10 +3548,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3534,10 +3559,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3545,10 +3570,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3556,22 +3581,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>885</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="H14" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3579,22 +3604,22 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3602,19 +3627,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="H16" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,19 +3647,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>850</v>
+        <v>812</v>
       </c>
       <c r="H17" t="s">
-        <v>850</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,19 +3667,19 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="H18" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3662,19 +3687,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="H19" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3682,19 +3707,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>890</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="H20" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3702,22 +3727,22 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>586</v>
+        <v>886</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>888</v>
+        <v>850</v>
       </c>
       <c r="H21" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3725,22 +3750,22 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>853</v>
+        <v>815</v>
       </c>
       <c r="H22" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3748,22 +3773,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C23" t="s">
+        <v>891</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="H23" t="s">
         <v>554</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="H23" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3771,22 +3796,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="C24" t="s">
-        <v>594</v>
+        <v>883</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>854</v>
+        <v>816</v>
       </c>
       <c r="H24" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,22 +3819,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>858</v>
+        <v>820</v>
       </c>
       <c r="H25" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3817,16 +3842,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3834,22 +3859,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>857</v>
+        <v>819</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>856</v>
+        <v>818</v>
       </c>
       <c r="H27" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3857,10 +3882,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3868,10 +3893,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C29" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3879,10 +3904,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="C30" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3890,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="C31" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3901,42 +3926,42 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>859</v>
+        <v>821</v>
       </c>
       <c r="C32" t="s">
-        <v>887</v>
+        <v>849</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
       <c r="C33" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
       <c r="C34" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="C35" t="s">
-        <v>922</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>900</v>
+        <v>859</v>
       </c>
       <c r="C36" t="s">
-        <v>923</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -3980,13 +4005,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3994,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4005,18 +4030,18 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4040,13 +4065,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4065,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,10 +4123,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,10 +4134,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4134,10 +4159,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4145,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4156,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4167,10 +4192,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4178,10 +4203,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4189,10 +4214,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4204,22 +4229,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,10 +4266,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,10 +4277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4271,13 +4299,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4289,213 +4317,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>922</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>921</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
+      <c r="D17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
@@ -4503,114 +4543,107 @@
       <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>568</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>923</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+      <sortCondition ref="B1:B26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4620,126 +4653,126 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4747,381 +4780,407 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+      <sortCondition ref="B1:B26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>569</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>925</v>
+      </c>
+      <c r="C16" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+      <sortCondition ref="B1:B15"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5136,10 +5195,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5147,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5158,10 +5217,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5233,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5186,38 +5245,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
-        <v>894</v>
+        <v>895</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5225,432 +5284,437 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>543</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>567</v>
       </c>
       <c r="C7" t="s">
-        <v>552</v>
-      </c>
-      <c r="D7" t="s">
-        <v>553</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>518</v>
+      </c>
+      <c r="D8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>596</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>603</v>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>602</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="C13" t="s">
-        <v>889</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>890</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="C17" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>539</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>548</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C24" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="C25" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>503</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>906</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>515</v>
       </c>
       <c r="C34" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>822</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>784</v>
       </c>
       <c r="C37" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>534</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>598</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>549</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+      <sortCondition ref="B1:B42"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5673,13 +5737,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5687,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5709,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,10 +5784,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5731,10 +5795,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5742,10 +5806,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,10 +5817,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5764,10 +5828,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5775,10 +5839,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5786,10 +5850,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5797,10 +5861,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -5808,10 +5872,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -5819,10 +5883,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5830,10 +5894,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5841,10 +5905,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5852,10 +5916,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5881,13 +5945,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5895,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>901</v>
+        <v>860</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -5907,10 +5971,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -5919,10 +5983,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -5931,10 +5995,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -5990,25 +6054,25 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6016,10 +6080,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,10 +6091,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6038,10 +6102,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6049,10 +6113,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6060,10 +6124,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6071,10 +6135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6082,10 +6146,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6093,10 +6157,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6121,13 +6185,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6135,10 +6199,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6146,10 +6210,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6157,10 +6221,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6168,10 +6232,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6179,10 +6243,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6190,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6201,10 +6265,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6212,10 +6276,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,10 +6287,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6234,10 +6298,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6245,10 +6309,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6256,10 +6320,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6267,10 +6331,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6278,10 +6342,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6289,10 +6353,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6300,10 +6364,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6311,10 +6375,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6322,10 +6386,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6333,10 +6397,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6344,10 +6408,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6355,10 +6419,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6366,10 +6430,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6377,10 +6441,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6388,10 +6452,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6399,10 +6463,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6424,16 +6488,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6451,13 +6515,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6465,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6487,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6498,10 +6562,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6509,10 +6573,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6520,10 +6584,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,10 +6595,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6542,10 +6606,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,10 +6617,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6564,10 +6628,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6585,13 +6649,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6603,21 +6667,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6625,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6636,10 +6704,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6647,10 +6715,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6658,10 +6726,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,10 +6737,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,10 +6748,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>898</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6691,10 +6759,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6702,10 +6770,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6713,10 +6781,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6724,10 +6792,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6735,10 +6803,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6746,10 +6814,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6757,10 +6825,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6768,10 +6836,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6779,10 +6847,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6790,10 +6858,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6801,10 +6869,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6812,10 +6880,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6823,10 +6891,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6834,10 +6902,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6845,10 +6913,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6856,10 +6924,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6867,10 +6935,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6878,10 +6946,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6889,10 +6957,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6900,10 +6968,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6911,10 +6979,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6922,10 +6990,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6933,13 +7001,18 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+      <sortCondition ref="B1:B30"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6949,7 +7022,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6960,13 +7033,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,10 +7058,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6996,10 +7069,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,10 +7080,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7018,10 +7091,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,10 +7102,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7040,10 +7113,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7051,10 +7124,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7062,10 +7135,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7073,10 +7146,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7084,10 +7157,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7095,10 +7168,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7106,10 +7179,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7117,10 +7190,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7128,10 +7201,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7139,10 +7212,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7150,10 +7223,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7161,10 +7234,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7172,10 +7245,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7183,10 +7256,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7194,10 +7267,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7205,10 +7278,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7216,10 +7289,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7227,10 +7300,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7238,10 +7311,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -7249,10 +7322,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7260,10 +7333,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7275,23 +7348,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7299,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7310,10 +7385,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7321,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7332,10 +7407,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7343,10 +7418,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7354,10 +7429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,10 +7440,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7376,10 +7451,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7387,10 +7462,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7398,10 +7473,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7409,10 +7484,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7420,10 +7495,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7431,10 +7506,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7442,10 +7517,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,10 +7528,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7464,10 +7539,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7475,10 +7550,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -7490,19 +7565,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7510,10 +7591,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7521,10 +7602,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,10 +7613,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7543,10 +7624,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7554,10 +7635,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7565,10 +7646,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7576,10 +7657,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7587,10 +7668,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7598,10 +7679,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7609,10 +7690,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7620,10 +7701,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7631,10 +7712,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>914</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7642,10 +7723,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,10 +7734,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="C15" t="s">
-        <v>471</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7664,10 +7745,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C16" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7675,10 +7756,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7696,13 +7777,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7710,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7721,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7732,10 +7813,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7743,10 +7824,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7754,10 +7835,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7765,10 +7846,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7776,10 +7857,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7787,10 +7868,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -7798,10 +7879,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -7809,10 +7890,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7820,10 +7901,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7831,10 +7912,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -7842,10 +7923,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -7853,10 +7934,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7864,10 +7945,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7875,10 +7956,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C17" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7886,10 +7967,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7897,10 +7978,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7908,10 +7989,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7919,10 +8000,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7930,10 +8011,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7941,10 +8022,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7952,10 +8033,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7963,10 +8044,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7974,10 +8055,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -8003,13 +8084,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8017,10 +8098,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -8029,10 +8110,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -8041,10 +8122,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -8053,10 +8134,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -8105,7 +8186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -8117,13 +8198,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8131,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8142,10 +8223,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8153,10 +8234,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8164,10 +8245,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,10 +8256,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8186,10 +8267,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,10 +8278,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,10 +8289,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8219,10 +8300,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8230,10 +8311,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8241,10 +8322,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8252,10 +8333,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8263,10 +8344,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8274,10 +8355,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -8285,10 +8366,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8296,10 +8377,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8307,10 +8388,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8334,101 +8415,101 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8453,37 +8534,37 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -8509,13 +8590,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,10 +8604,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>909</v>
+        <v>868</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -8535,10 +8616,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -8547,10 +8628,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -8613,13 +8694,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8627,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -8639,10 +8720,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -8703,13 +8784,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8717,10 +8798,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="C2" t="s">
-        <v>861</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8729,10 +8810,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>862</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8741,10 +8822,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>826</v>
       </c>
       <c r="C4" t="s">
-        <v>863</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8753,10 +8834,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>865</v>
+        <v>827</v>
       </c>
       <c r="C5" t="s">
-        <v>866</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8765,10 +8846,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="C6" t="s">
-        <v>867</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8777,10 +8858,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="C7" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8789,10 +8870,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="C8" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8801,10 +8882,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="C9" t="s">
-        <v>872</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8813,10 +8894,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>873</v>
+        <v>835</v>
       </c>
       <c r="C10" t="s">
-        <v>874</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8825,10 +8906,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>875</v>
+        <v>837</v>
       </c>
       <c r="C11" t="s">
-        <v>876</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8837,10 +8918,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="C12" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8849,10 +8930,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
       <c r="C13" t="s">
-        <v>880</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8861,10 +8942,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>881</v>
+        <v>843</v>
       </c>
       <c r="C14" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8873,10 +8954,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>883</v>
+        <v>845</v>
       </c>
       <c r="C15" t="s">
-        <v>884</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -8900,13 +8981,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8914,10 +8995,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8926,10 +9007,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8938,10 +9019,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8950,10 +9031,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8962,10 +9043,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8974,10 +9055,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8986,10 +9067,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="C8" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8998,10 +9079,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9010,10 +9091,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -9022,10 +9103,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -9034,10 +9115,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>618</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -9046,10 +9127,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -9058,10 +9139,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
       <c r="C14" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -9070,10 +9151,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -9082,10 +9163,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -9094,10 +9175,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="C17" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9106,13 +9187,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="C18" t="s">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -9121,10 +9202,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>642</v>
+        <v>604</v>
       </c>
       <c r="C19" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -9133,10 +9214,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>651</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -9145,10 +9226,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="C21" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -9157,10 +9238,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="C22" t="s">
-        <v>653</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -9169,10 +9250,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>646</v>
+        <v>608</v>
       </c>
       <c r="C23" t="s">
-        <v>654</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -9181,10 +9262,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C24" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -9193,10 +9274,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="C25" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -9205,10 +9286,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="C26" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -9217,10 +9298,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="C27" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -9229,10 +9310,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>782</v>
+        <v>744</v>
       </c>
       <c r="C28" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -9241,10 +9322,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
       <c r="C29" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -9253,10 +9334,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>784</v>
+        <v>746</v>
       </c>
       <c r="C30" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -9265,10 +9346,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>785</v>
+        <v>747</v>
       </c>
       <c r="C31" t="s">
-        <v>663</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -9277,10 +9358,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="C32" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,10 +9370,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="C33" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -9301,10 +9382,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>668</v>
+        <v>630</v>
       </c>
       <c r="C34" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -9313,10 +9394,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="C35" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -9325,10 +9406,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="C36" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -9337,10 +9418,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="C37" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -9349,10 +9430,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="C38" t="s">
-        <v>677</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9361,10 +9442,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>678</v>
+        <v>640</v>
       </c>
       <c r="C39" t="s">
-        <v>679</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9373,10 +9454,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="C40" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9385,10 +9466,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="C41" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9397,10 +9478,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>684</v>
+        <v>646</v>
       </c>
       <c r="C42" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9409,10 +9490,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="C43" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9421,10 +9502,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="C44" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9433,10 +9514,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="C45" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9445,10 +9526,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="C46" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -9457,10 +9538,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
       <c r="C47" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -9469,10 +9550,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>693</v>
+        <v>655</v>
       </c>
       <c r="C48" t="s">
-        <v>694</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -9481,10 +9562,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
       <c r="C49" t="s">
-        <v>695</v>
+        <v>657</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -9493,10 +9574,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>696</v>
+        <v>658</v>
       </c>
       <c r="C50" t="s">
-        <v>697</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -9505,10 +9586,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>698</v>
+        <v>660</v>
       </c>
       <c r="C51" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -9517,10 +9598,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>750</v>
       </c>
       <c r="C52" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -9529,10 +9610,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="C53" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -9541,10 +9622,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="C54" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -9553,10 +9634,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="C55" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -9565,10 +9646,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
       <c r="C56" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -9577,10 +9658,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="C57" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -9589,10 +9670,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="C58" t="s">
-        <v>711</v>
+        <v>673</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -9601,10 +9682,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="C59" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -9613,10 +9694,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="C60" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -9625,10 +9706,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>716</v>
+        <v>678</v>
       </c>
       <c r="C61" t="s">
-        <v>717</v>
+        <v>679</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -9637,10 +9718,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="C62" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -9649,10 +9730,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="C63" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -9661,10 +9742,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
       <c r="C64" t="s">
-        <v>723</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -9673,10 +9754,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="C65" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -9685,10 +9766,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>789</v>
+        <v>751</v>
       </c>
       <c r="C66" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -9697,10 +9778,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>790</v>
+        <v>752</v>
       </c>
       <c r="C67" t="s">
-        <v>727</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -9709,10 +9790,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>791</v>
+        <v>753</v>
       </c>
       <c r="C68" t="s">
-        <v>728</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -9721,10 +9802,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>792</v>
+        <v>754</v>
       </c>
       <c r="C69" t="s">
-        <v>729</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -9733,10 +9814,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>793</v>
+        <v>755</v>
       </c>
       <c r="C70" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -9745,10 +9826,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>794</v>
+        <v>756</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -9757,10 +9838,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>795</v>
+        <v>757</v>
       </c>
       <c r="C72" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -9769,10 +9850,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
       <c r="C73" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -9781,10 +9862,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="C74" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -9793,10 +9874,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="C75" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -9805,10 +9886,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="C76" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,10 +9898,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="C77" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -9829,10 +9910,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="C78" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -9841,10 +9922,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="C79" t="s">
-        <v>745</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -9853,10 +9934,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="C80" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -9865,10 +9946,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="C81" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -9877,10 +9958,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>750</v>
+        <v>712</v>
       </c>
       <c r="C82" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -9889,10 +9970,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>752</v>
+        <v>714</v>
       </c>
       <c r="C83" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -9901,10 +9982,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
       <c r="C84" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -9913,10 +9994,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="C85" t="s">
-        <v>756</v>
+        <v>718</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -9925,10 +10006,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="C86" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -9937,10 +10018,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>759</v>
+        <v>721</v>
       </c>
       <c r="C87" t="s">
-        <v>760</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,10 +10030,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
       <c r="C88" t="s">
-        <v>762</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -9961,10 +10042,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
       <c r="C89" t="s">
-        <v>763</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -9973,10 +10054,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
       <c r="C90" t="s">
-        <v>764</v>
+        <v>726</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -9985,10 +10066,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>804</v>
+        <v>766</v>
       </c>
       <c r="C91" t="s">
-        <v>765</v>
+        <v>727</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -9997,10 +10078,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>766</v>
+        <v>728</v>
       </c>
       <c r="C92" t="s">
-        <v>767</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -10009,10 +10090,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="C93" t="s">
-        <v>768</v>
+        <v>730</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -10021,10 +10102,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>769</v>
+        <v>731</v>
       </c>
       <c r="C94" t="s">
-        <v>770</v>
+        <v>732</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -10033,10 +10114,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>771</v>
+        <v>733</v>
       </c>
       <c r="C95" t="s">
-        <v>772</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -10045,10 +10126,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
       <c r="C96" t="s">
-        <v>774</v>
+        <v>736</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -10057,10 +10138,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
       <c r="C97" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -10069,10 +10150,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
       <c r="C98" t="s">
-        <v>778</v>
+        <v>740</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,10 +10162,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="C99" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -10093,10 +10174,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="C100" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -10121,13 +10202,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10135,10 +10216,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>823</v>
+        <v>785</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -10148,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>825</v>
+        <v>787</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>826</v>
+        <v>788</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -10161,10 +10242,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -10174,10 +10255,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>829</v>
+        <v>791</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>830</v>
+        <v>792</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -10187,10 +10268,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>832</v>
+        <v>794</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -10200,10 +10281,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>833</v>
+        <v>795</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -10213,10 +10294,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>834</v>
+        <v>796</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>839</v>
+        <v>801</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -10226,10 +10307,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>835</v>
+        <v>797</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>840</v>
+        <v>802</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -10239,10 +10320,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -10252,10 +10333,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>836</v>
+        <v>798</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -10265,10 +10346,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>837</v>
+        <v>799</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -10293,22 +10374,22 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -10317,10 +10398,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -10329,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -10341,10 +10422,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -10353,10 +10434,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -10365,75 +10446,75 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>806</v>
+        <v>768</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>807</v>
+        <v>769</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>808</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>809</v>
+        <v>771</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>810</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>820</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>813</v>
+        <v>775</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>814</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>817</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>818</v>
+        <v>780</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>819</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
+++ b/data/wasstraat_config/Wasstraat_Config_HarmonizeV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjen/Dropbox/Development/wasstraat_archeologische_data/data/wasstraat_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F66543A-E9CC-2F4F-819E-5D5726A5D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E852C-F5AA-2346-8943-180C7229AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11240" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11240" yWindow="-28300" windowWidth="51200" windowHeight="28300" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objecten" sheetId="1" r:id="rId1"/>
